--- a/Book 1.xlsx
+++ b/Book 1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipen\PycharmProjects\My_classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5071DB60-6940-489F-B899-83E91AEEFFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0FACBE-AB3E-4F43-BFA6-870C0633D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03F764E3-85F1-49B5-8786-945FC52AAEF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="738">
   <si>
     <t xml:space="preserve"> @ АЗС</t>
   </si>
@@ -1439,6 +1439,813 @@
   </si>
   <si>
     <t xml:space="preserve"> @ Достопримечательности и интересные места</t>
+  </si>
+  <si>
+    <t>Подскажите АЗС с магазином на М5. @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М2 возле озера? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка есть на М6 после моста? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М8 АЗС с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М11 есть заправка с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС на М3 находится возле парка? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М7 возле туристической зоны? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 можно найти заправку с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 заправка с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М4 после поворота на деревню? @ АЗС</t>
+  </si>
+  <si>
+    <t>Подскажите заправку с магазином на М5. @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М2 возле города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М6 можно найти АЗС с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М8 заправка с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 находится ближайшая заправка? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли заправка с кафе на М10? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на трассе М4? @ АЗС</t>
+  </si>
+  <si>
+    <t>Подскажите заправку на трассе М5. @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть возле деревни Ивановка на М2? @ АЗС</t>
+  </si>
+  <si>
+    <t>Можно ли заправиться перед городом Тула на М6? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где расположена ближайшая АЗС на М8 после выезда из города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли АЗС с туалетом на трассе М11? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка находится недалеко от поворота на М3? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М7 найти АЗС с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где после моста на М1 есть заправка? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М10 возле кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М4 заправка с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М5 ближайшая заправка с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М2 возле поворота на деревню? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М6 можно найти заправку с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли АЗС на М8 после выезда из города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М11 есть заправка с детской площадкой? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка на М3 находится недалеко от озера? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М7 возле туристической базы? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 есть заправка с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Подскажите заправку с магазином на М10. @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно найти АЗС на трассе М4? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М5 заправка с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС на М2 находится возле реки? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М6 можно заправиться перед выездом на трассу? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М8 АЗС с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС на М3 находится возле деревни? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М7 перед въездом в город? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли заправка с рестораном на М1? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 есть заправка с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС находится на М4 возле поворота на город? @ АЗС</t>
+  </si>
+  <si>
+    <t>Подскажите заправку с кафе на М5. @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М2 можно заправиться возле леса? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М6 АЗС с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М8 есть заправка с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС на М11 находится возле озера? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М3 возле деревни? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М7 заправка с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 можно заправиться перед городом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 АЗС с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где находится ближайшая заправка на М4? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М11 есть АЗС с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка на М3 находится возле туристического комплекса? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли заправка с кафе на М1 после моста? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 можно найти АЗС с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка находится на М4 возле леса? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М2 после выезда из города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М6 возле реки? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М8 заправка с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М11 есть заправка с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М7 перед въездом в деревню? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 есть АЗС с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 заправка с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где находится ближайшая заправка на М4 после поворота? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М2 возле озера? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М8 заправка с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М11 есть АЗС с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка на М3 находится возле туристической зоны? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 есть АЗС с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка находится на М4 возле города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М2 возле леса? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М6 после выезда из города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М8 заправка с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка на М3 находится возле парка? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М7 возле туристического комплекса? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 можно заправиться перед мостом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 заправка с кафе и туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Подскажите заправку с рестораном на М5. @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М2 возле деревни? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М6 можно найти АЗС с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М11 есть заправка с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка на М3 находится возле города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М7 возле реки? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли заправка с кафе на М1 возле кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 можно заправиться после выезда из города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка находится на М4 возле поворота? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М6 возле парка? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 есть АЗС с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где находится ближайшая заправка на М4 после выезда? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М2 возле леса? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М7 возле деревни? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли заправка с рестораном на М1 возле кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 можно заправиться перед выездом на трассу? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М2 возле туристического комплекса? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка на М3 находится возле деревни? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 есть заправка с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М1 заправка с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М2 возле парка? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М1 заправка с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка на М3 находится возле реки? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М1 заправка с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 есть АЗС с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М2 возле реки? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М6 возле города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М11 есть АЗС с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 можно заправиться перед поворотом на город? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 АЗС с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М4 после моста? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М2 возле парка? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М6 можно найти заправку с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка на М3 находится возле озера? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 заправка с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М2 возле туристического комплекса? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М6 можно найти заправку с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка на М3 находится возле леса? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М7 возле города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 заправка с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М2 возле реки? @ АЗС</t>
+  </si>
+  <si>
+    <t>Есть ли заправка с магазином на М1? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 есть АЗС с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка находится на М4 возле поворота на деревню? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 есть АЗС с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М4 после поворота? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 можно найти заправку с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М6 можно найти заправку с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 есть АЗС с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 можно найти заправку с магазином? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М4 возле озера? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на М6 можно найти АЗС с туалетом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 можно заправиться перед въездом на трассу? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая заправка находится на М4 возле парка? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М2 возле туристической зоны? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М6 возле озера? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где находится ближайшая заправка на М4 после моста? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 можно найти АЗС с рестораном? @ АЗС</t>
+  </si>
+  <si>
+    <t>Какая АЗС есть на М6 возле туристической зоны? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где находится ближайшая заправка на М4 после выезда из города? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 можно заправиться перед мостом? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 можно найти заправку с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М4 возле реки? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М10 можно заправиться после моста? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 можно заправиться перед въездом на трассу? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 можно найти АЗС с кафе? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно заправиться на М4 после выезда? @ АЗС</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на трассе М1? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли места для отдыха на М10 перед мостом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М4 можно найти место для отдыха с кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М5. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 возле реки? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М6 место для отдыха с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М8 можно найти зону отдыха? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М3 перед городом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М7 зоны для отдыха с рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М1 можно остановиться на отдых? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 место для отдыха возле озера? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М4 можно найти зону отдыха с магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М5 возле леса. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 возле города? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М6 зоны для отдыха с туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М8 можно найти место для отдыха с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11 возле туристической зоны? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М3 перед мостом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М7 зоны для отдыха с кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М1 можно остановиться на отдых с рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 место для отдыха возле леса? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М4 можно найти зону отдыха с туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М5 возле озера. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 перед городом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М6 зоны для отдыха с кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М8 можно найти место для отдыха возле реки? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11 возле озера? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М3 перед туристической зоной? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М7 зоны для отдыха с туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М1 можно остановиться на отдых возле города? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 место для отдыха с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М4 можно найти зону отдыха с кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М5 возле туристической зоны. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 перед мостом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М6 зоны для отдыха с магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М8 можно найти место для отдыха с туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11 возле леса? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М7 зоны для отдыха с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М1 можно остановиться на отдых возле озера? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 место для отдыха с кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М4 можно найти зону отдыха с рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 перед выездом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М8 можно найти место для отдыха с магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11 возле города? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М3 перед рекой? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М1 можно остановиться на отдых возле леса? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 перед въездом в город? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М6 зоны для отдыха с рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11 возле парка? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М7 зоны для отдыха с магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 перед рекой? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11 возле реки? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 место для отдыха с магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 перед туристической зоной? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 перед озером? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 место для отдыха с рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 перед лесом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М6 зоны для отдыха с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 перед въездом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М3 перед озером? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М3 перед въездом в город? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М1 можно найти место для отдыха с кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 зоны для отдыха с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М4 можно найти зону отдыха с туалетом и кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М5 возле леса с рестораном. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М2 перед городом с магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М6 зоны для отдыха с парком и туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М8 можно найти место для отдыха с кафе и рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11 возле реки с магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М3 перед озером с кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М7 зоны для отдыха с парком и туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М1 можно найти место для отдыха с рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М10 возле леса с кафе. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М4 перед городом с туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М5 зоны для отдыха с парком и магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М2 можно найти зону отдыха с кафе и рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М6 возле реки с туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М8 перед озером с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М11 зоны для отдыха с магазином и рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М3 можно найти место для отдыха с кафе и туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М7 возле леса с рестораном. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М1 перед городом с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 зоны для отдыха с магазином и туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М4 можно найти зону отдыха с кафе и рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М5 возле реки с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М2 перед озером с магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М6 зоны для отдыха с рестораном и туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11 возле озера с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М3 перед городом с кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М7 зоны для отдыха с магазином и туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М1 можно найти место для отдыха с рестораном и кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М10 возле леса с туалетом. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М4 перед городом с рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М5 зоны для отдыха с парком и кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М2 можно найти зону отдыха с рестораном и магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М6 возле реки с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М8 перед озером с кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М11 зоны для отдыха с туалетом и рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М3 можно найти место для отдыха с кафе и рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М7 возле леса с туалетом. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М1 перед городом с рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 зоны для отдыха с кафе и туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М4 можно найти зону отдыха с рестораном и магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М5 возле реки с кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М2 перед озером с рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11 возле озера с туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М3 перед городом с парком? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М10 возле леса с туалетом и кафе. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М4 перед городом с рестораном и магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М8 перед озером с кафе и рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М7 возле леса с туалетом и магазином. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М1 перед городом с парком и кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Есть ли на М10 зоны для отдыха с рестораном и туалетом? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на М4 можно найти зону отдыха с кафе и магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Подскажите места для отдыха на М5 возле реки с кафе и парком. @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М2 перед озером с рестораном и магазином? @ Отдых</t>
+  </si>
+  <si>
+    <t>Какие места для отдыха есть на М11 возле озера с туалетом и рестораном? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно отдохнуть на М3 перед городом с парком и кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где можно остановиться на отдых на М1 перед городом с рестораном и кафе? @ Отдых</t>
   </si>
 </sst>
 </file>
@@ -1808,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C13D30-FAD8-4B25-BC5F-166A891BC747}">
-  <dimension ref="A1:C470"/>
+  <dimension ref="A1:C1539"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1487" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1500" sqref="C1500:C1539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,7 +2636,7 @@
         <v>277</v>
       </c>
       <c r="C1" t="str">
-        <f>CONCATENATE(A1,B1)</f>
+        <f t="shared" ref="C1:C64" si="0">CONCATENATE(A1,B1)</f>
         <v>1.  Где можно остановиться на отдых на трассе М5?  @ Отдых</v>
       </c>
     </row>
@@ -1841,7 +2648,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE(A2,B2)</f>
+        <f t="shared" si="0"/>
         <v>1.  Где можно поесть на трассе М5?  @ Еда</v>
       </c>
     </row>
@@ -1853,7 +2660,7 @@
         <v>468</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE(A3,B3)</f>
+        <f t="shared" si="0"/>
         <v>1.  Какие достопримечательности находятся на трассе М5?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -1865,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE(A4,B4)</f>
+        <f t="shared" si="0"/>
         <v>1.  Какие чрезвычайные ситуации произошли на трассе Е22?  @ ЧС</v>
       </c>
     </row>
@@ -1877,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="str">
-        <f>CONCATENATE(A5,B5)</f>
+        <f t="shared" si="0"/>
         <v>1.  Пожалуйста, предоставьте информацию о заправочных станциях на трассе М4 в сторону Москвы.  @ АЗС</v>
       </c>
     </row>
@@ -1889,7 +2696,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>CONCATENATE(A6,B6)</f>
+        <f t="shared" si="0"/>
         <v>1.     Есть ли информация о произошедшей аварии на трассе Е22?  @ Авария</v>
       </c>
     </row>
@@ -1901,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE(A7,B7)</f>
+        <f t="shared" si="0"/>
         <v>10.  Где на трассе М1 после моста расположена заправка с кафе?  @ АЗС</v>
       </c>
     </row>
@@ -1913,7 +2720,7 @@
         <v>277</v>
       </c>
       <c r="C8" t="str">
-        <f>CONCATENATE(A8,B8)</f>
+        <f t="shared" si="0"/>
         <v>10.  Есть ли возможность остановиться на отдых на М10 в сторону Москвы?  @ Отдых</v>
       </c>
     </row>
@@ -1925,7 +2732,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="str">
-        <f>CONCATENATE(A9,B9)</f>
+        <f t="shared" si="0"/>
         <v>10.  Есть ли информация о ЧП на М10 в сторону Москвы?  @ ЧС</v>
       </c>
     </row>
@@ -1937,7 +2744,7 @@
         <v>468</v>
       </c>
       <c r="C10" t="str">
-        <f>CONCATENATE(A10,B10)</f>
+        <f t="shared" si="0"/>
         <v>10.  Какие места стоит посетить на М10 в сторону Москвы?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -1949,7 +2756,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE(A11,B11)</f>
+        <f t="shared" si="0"/>
         <v>10.  Какие рестораны находятся на М10 в сторону Москвы?  @ Еда</v>
       </c>
     </row>
@@ -1961,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="str">
-        <f>CONCATENATE(A12,B12)</f>
+        <f t="shared" si="0"/>
         <v>10.  Можно узнать о столкновении на М10 в сторону Москвы?  @ Авария</v>
       </c>
     </row>
@@ -1973,7 +2780,7 @@
         <v>468</v>
       </c>
       <c r="C13" t="str">
-        <f>CONCATENATE(A13,B13)</f>
+        <f t="shared" si="0"/>
         <v>100.  Какие места стоит посетить на М10 в сторону Москвы через 120 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -1985,7 +2792,7 @@
         <v>277</v>
       </c>
       <c r="C14" t="str">
-        <f>CONCATENATE(A14,B14)</f>
+        <f t="shared" si="0"/>
         <v>11.  Где можно остановиться на отдых на трассе М5 через 50 км?  @ Отдых</v>
       </c>
     </row>
@@ -1997,7 +2804,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="str">
-        <f>CONCATENATE(A15,B15)</f>
+        <f t="shared" si="0"/>
         <v>11.  Где можно поесть на трассе М5 через 50 км?  @ Еда</v>
       </c>
     </row>
@@ -2009,7 +2816,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="str">
-        <f>CONCATENATE(A16,B16)</f>
+        <f t="shared" si="0"/>
         <v>11.  Есть ли информация о произошедшей аварии на трассе Е22 через 50 км?  @ Авария</v>
       </c>
     </row>
@@ -2021,7 +2828,7 @@
         <v>468</v>
       </c>
       <c r="C17" t="str">
-        <f>CONCATENATE(A17,B17)</f>
+        <f t="shared" si="0"/>
         <v>11.  Какие достопримечательности находятся на трассе М5 через 50 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2033,7 +2840,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="str">
-        <f>CONCATENATE(A18,B18)</f>
+        <f t="shared" si="0"/>
         <v>11.  Какие чрезвычайные ситуации произошли на трассе Е22 через 50 км?  @ ЧС</v>
       </c>
     </row>
@@ -2045,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="str">
-        <f>CONCATENATE(A19,B19)</f>
+        <f t="shared" si="0"/>
         <v>11.  Можно ли узнать о наличии заправки на трассе М4 через 50 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -2057,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="str">
-        <f>CONCATENATE(A20,B20)</f>
+        <f t="shared" si="0"/>
         <v>12.  Есть ли заправки на М6 в сторону Киева через 80 км от начала?  @ АЗС</v>
       </c>
     </row>
@@ -2069,7 +2876,7 @@
         <v>277</v>
       </c>
       <c r="C21" t="str">
-        <f>CONCATENATE(A21,B21)</f>
+        <f t="shared" si="0"/>
         <v>12.  Есть ли информация о гостиницах на М6 в сторону Киева через 70 км?  @ Отдых</v>
       </c>
     </row>
@@ -2081,7 +2888,7 @@
         <v>468</v>
       </c>
       <c r="C22" t="str">
-        <f>CONCATENATE(A22,B22)</f>
+        <f t="shared" si="0"/>
         <v>12.  Есть ли информация о интересных местах на М6 в сторону Киева через 70 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2093,7 +2900,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="str">
-        <f>CONCATENATE(A23,B23)</f>
+        <f t="shared" si="0"/>
         <v>12.  Можно ли получить информацию о чрезвычайной ситуации на М6 в сторону Киева через 70 км?  @ ЧС</v>
       </c>
     </row>
@@ -2105,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="str">
-        <f>CONCATENATE(A24,B24)</f>
+        <f t="shared" si="0"/>
         <v>12.  Можно ли узнать о ДТП по М6 в сторону Киева через 70 км?  @ Авария</v>
       </c>
     </row>
@@ -2117,7 +2924,7 @@
         <v>3</v>
       </c>
       <c r="C25" t="str">
-        <f>CONCATENATE(A25,B25)</f>
+        <f t="shared" si="0"/>
         <v>12.  Можно ли узнать о ресторанах на М6 в сторону Киева через 70 км?  @ Еда</v>
       </c>
     </row>
@@ -2129,7 +2936,7 @@
         <v>468</v>
       </c>
       <c r="C26" t="str">
-        <f>CONCATENATE(A26,B26)</f>
+        <f t="shared" si="0"/>
         <v>13.  Какие достопримечательности можно посетить на трассе Е95 через 50 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2141,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="str">
-        <f>CONCATENATE(A27,B27)</f>
+        <f t="shared" si="0"/>
         <v>13.  Какие кафе находятся на трассе Е95 через 50 км?  @ Еда</v>
       </c>
     </row>
@@ -2153,7 +2960,7 @@
         <v>277</v>
       </c>
       <c r="C28" t="str">
-        <f>CONCATENATE(A28,B28)</f>
+        <f t="shared" si="0"/>
         <v>13.  Какие отели расположены на трассе Е95 через 50 км?  @ Отдых</v>
       </c>
     </row>
@@ -2165,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="str">
-        <f>CONCATENATE(A29,B29)</f>
+        <f t="shared" si="0"/>
         <v>13.  Пожалуйста, сообщите, где находится автозаправочная станция на Е20 перед выездом на город.  @ АЗС</v>
       </c>
     </row>
@@ -2177,7 +2984,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="str">
-        <f>CONCATENATE(A30,B30)</f>
+        <f t="shared" si="0"/>
         <v>13.  Что произошло на трассе Е95 в районе поворота налево через 50 км?  @ ЧС</v>
       </c>
     </row>
@@ -2189,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="str">
-        <f>CONCATENATE(A31,B31)</f>
+        <f t="shared" si="0"/>
         <v>13.  Что произошло на трассе Е95 в районе поворота налево?  @ Авария</v>
       </c>
     </row>
@@ -2201,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="str">
-        <f>CONCATENATE(A32,B32)</f>
+        <f t="shared" si="0"/>
         <v>14.  Есть ли информация о закусочных на М4 через 30 км?  @ Еда</v>
       </c>
     </row>
@@ -2213,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="str">
-        <f>CONCATENATE(A33,B33)</f>
+        <f t="shared" si="0"/>
         <v>14.  Имеется ли информация о блокировке движения из-за столкновения на М4 через 30 км?  @ Авария</v>
       </c>
     </row>
@@ -2225,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="str">
-        <f>CONCATENATE(A34,B34)</f>
+        <f t="shared" si="0"/>
         <v>14.  Имеется ли информация о заправках на М8 через 60 км после поворота налево?  @ АЗС</v>
       </c>
     </row>
@@ -2237,7 +3044,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="str">
-        <f>CONCATENATE(A35,B35)</f>
+        <f t="shared" si="0"/>
         <v>14.  Имеется ли информация о ЧП на М4 через 30 км, приведшем к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -2249,7 +3056,7 @@
         <v>277</v>
       </c>
       <c r="C36" t="str">
-        <f>CONCATENATE(A36,B36)</f>
+        <f t="shared" si="0"/>
         <v>14.  Можно ли найти место для отдыха на М4 через 30 км?  @ Отдых</v>
       </c>
     </row>
@@ -2261,7 +3068,7 @@
         <v>468</v>
       </c>
       <c r="C37" t="str">
-        <f>CONCATENATE(A37,B37)</f>
+        <f t="shared" si="0"/>
         <v>14.  Можно ли узнать о интересных местах на М4 через 30 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2273,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="str">
-        <f>CONCATENATE(A38,B38)</f>
+        <f t="shared" si="0"/>
         <v>15.  Где можно найти кафе на М9 в сторону Оренбурга через 40 км?  @ Еда</v>
       </c>
     </row>
@@ -2285,7 +3092,7 @@
         <v>277</v>
       </c>
       <c r="C39" t="str">
-        <f>CONCATENATE(A39,B39)</f>
+        <f t="shared" si="0"/>
         <v>15.  Где можно найти отель на М9 в сторону Оренбурга через 40 км?  @ Отдых</v>
       </c>
     </row>
@@ -2297,7 +3104,7 @@
         <v>468</v>
       </c>
       <c r="C40" t="str">
-        <f>CONCATENATE(A40,B40)</f>
+        <f t="shared" si="0"/>
         <v>15.  Где находятся интересные места на М9 в сторону Оренбурга через 40 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2309,7 +3116,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="str">
-        <f>CONCATENATE(A41,B41)</f>
+        <f t="shared" si="0"/>
         <v>15.  Есть ли данные о чрезвычайной ситуации на М9 в сторону Оренбурга через 40 км?  @ ЧС</v>
       </c>
     </row>
@@ -2321,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="str">
-        <f>CONCATENATE(A42,B42)</f>
+        <f t="shared" si="0"/>
         <v>15.  Есть ли информация о ДТП по М9 в сторону Оренбурга через 40 км?  @ Авария</v>
       </c>
     </row>
@@ -2333,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="str">
-        <f>CONCATENATE(A43,B43)</f>
+        <f t="shared" si="0"/>
         <v>15.  Можно ли узнать о наличии заправки на М9 в сторону Оренбурга через 100 км?  @ АЗС</v>
       </c>
     </row>
@@ -2345,7 +3152,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="str">
-        <f>CONCATENATE(A44,B44)</f>
+        <f t="shared" si="0"/>
         <v>16.  Где на Е30 можно заправиться через 70 км после начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -2357,7 +3164,7 @@
         <v>468</v>
       </c>
       <c r="C45" t="str">
-        <f>CONCATENATE(A45,B45)</f>
+        <f t="shared" si="0"/>
         <v>16.  Какие достопримечательности доступны на М5 в сторону Новосибирска через 20 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2369,7 +3176,7 @@
         <v>277</v>
       </c>
       <c r="C46" t="str">
-        <f>CONCATENATE(A46,B46)</f>
+        <f t="shared" si="0"/>
         <v>16.  Какие места для отдыха доступны на М5 в сторону Новосибирска через 20 км?  @ Отдых</v>
       </c>
     </row>
@@ -2381,7 +3188,7 @@
         <v>3</v>
       </c>
       <c r="C47" t="str">
-        <f>CONCATENATE(A47,B47)</f>
+        <f t="shared" si="0"/>
         <v>16.  Какие рестораны доступны на М5 в сторону Новосибирска через 20 км?  @ Еда</v>
       </c>
     </row>
@@ -2393,7 +3200,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="str">
-        <f>CONCATENATE(A48,B48)</f>
+        <f t="shared" si="0"/>
         <v>16.  Что произошло на М5 в сторону Новосибирска через 20 км?  @ Авария</v>
       </c>
     </row>
@@ -2405,7 +3212,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="str">
-        <f>CONCATENATE(A49,B49)</f>
+        <f t="shared" si="0"/>
         <v>16.  Что произошло на М5 в сторону Новосибирска через 20 км?  @ ЧС</v>
       </c>
     </row>
@@ -2417,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="str">
-        <f>CONCATENATE(A50,B50)</f>
+        <f t="shared" si="0"/>
         <v>17.  Есть ли заправочные станции на А3 в сторону Самары через 150 км?  @ АЗС</v>
       </c>
     </row>
@@ -2429,7 +3236,7 @@
         <v>468</v>
       </c>
       <c r="C51" t="str">
-        <f>CONCATENATE(A51,B51)</f>
+        <f t="shared" si="0"/>
         <v>17.  Есть ли информация о знаковых местах на трассе Е30 через 60 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2441,7 +3248,7 @@
         <v>277</v>
       </c>
       <c r="C52" t="str">
-        <f>CONCATENATE(A52,B52)</f>
+        <f t="shared" si="0"/>
         <v>17.  Есть ли информация о пансионатах на трассе Е30 через 60 км?  @ Отдых</v>
       </c>
     </row>
@@ -2453,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="str">
-        <f>CONCATENATE(A53,B53)</f>
+        <f t="shared" si="0"/>
         <v>17.  Есть ли информация о случившейся аварии на Е30 через 60 км?  @ Авария</v>
       </c>
     </row>
@@ -2465,7 +3272,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="str">
-        <f>CONCATENATE(A54,B54)</f>
+        <f t="shared" si="0"/>
         <v>17.  Можно ли узнать о закусочных на трассе Е30 через 60 км?  @ Еда</v>
       </c>
     </row>
@@ -2477,7 +3284,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="str">
-        <f>CONCATENATE(A55,B55)</f>
+        <f t="shared" si="0"/>
         <v>17.  Можно ли узнать о чрезвычайной ситуации на Е30 через 60 км?  @ ЧС</v>
       </c>
     </row>
@@ -2489,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="str">
-        <f>CONCATENATE(A56,B56)</f>
+        <f t="shared" si="0"/>
         <v>18.  Где можно перекусить на М2 возле развязки через 20 км?  @ Еда</v>
       </c>
     </row>
@@ -2501,7 +3308,7 @@
         <v>277</v>
       </c>
       <c r="C57" t="str">
-        <f>CONCATENATE(A57,B57)</f>
+        <f t="shared" si="0"/>
         <v>18.  Где можно сделать остановку для отдыха на М2 возле развязки через 20 км?  @ Отдых</v>
       </c>
     </row>
@@ -2513,7 +3320,7 @@
         <v>468</v>
       </c>
       <c r="C58" t="str">
-        <f>CONCATENATE(A58,B58)</f>
+        <f t="shared" si="0"/>
         <v>18.  Какие интересные места можно увидеть на М2 возле развязки через 20 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2525,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="str">
-        <f>CONCATENATE(A59,B59)</f>
+        <f t="shared" si="0"/>
         <v>18.  Какие ЧС произошли на М2 возле развязки через 20 км?  @ ЧС</v>
       </c>
     </row>
@@ -2537,7 +3344,7 @@
         <v>1</v>
       </c>
       <c r="C60" t="str">
-        <f>CONCATENATE(A60,B60)</f>
+        <f t="shared" si="0"/>
         <v>18.  Можно ли узнать о ДТП по М2 возле развязки через 20 км?  @ Авария</v>
       </c>
     </row>
@@ -2549,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="str">
-        <f>CONCATENATE(A61,B61)</f>
+        <f t="shared" si="0"/>
         <v>18.  Пожалуйста, предоставьте информацию о заправках на М10 перед поворотом налево через 80 км.  @ АЗС</v>
       </c>
     </row>
@@ -2561,7 +3368,7 @@
         <v>468</v>
       </c>
       <c r="C62" t="str">
-        <f>CONCATENATE(A62,B62)</f>
+        <f t="shared" si="0"/>
         <v>19.  Где расположены достопримечательности на трассе Е40 через 40 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2573,7 +3380,7 @@
         <v>3</v>
       </c>
       <c r="C63" t="str">
-        <f>CONCATENATE(A63,B63)</f>
+        <f t="shared" si="0"/>
         <v>19.  Есть ли информация о кафе на трассе Е40 через 40 км?  @ Еда</v>
       </c>
     </row>
@@ -2585,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="str">
-        <f>CONCATENATE(A64,B64)</f>
+        <f t="shared" si="0"/>
         <v>19.  Имеются ли заправки по М5 в сторону Новосибирска через 200 км?  @ АЗС</v>
       </c>
     </row>
@@ -2597,7 +3404,7 @@
         <v>277</v>
       </c>
       <c r="C65" t="str">
-        <f>CONCATENATE(A65,B65)</f>
+        <f t="shared" ref="C65:C128" si="1">CONCATENATE(A65,B65)</f>
         <v>19.  Какие кемпинги находятся на трассе Е40 через 40 км?  @ Отдых</v>
       </c>
     </row>
@@ -2609,7 +3416,7 @@
         <v>2</v>
       </c>
       <c r="C66" t="str">
-        <f>CONCATENATE(A66,B66)</f>
+        <f t="shared" si="1"/>
         <v>19.  Что вызвало чрезвычайную ситуацию на трассе Е40 через 40 км, приведшую к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -2621,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="str">
-        <f>CONCATENATE(A67,B67)</f>
+        <f t="shared" si="1"/>
         <v>19.  Что произошло на трассе Е40, что привело к блокировке движения через 40 км?  @ Авария</v>
       </c>
     </row>
@@ -2633,7 +3440,7 @@
         <v>277</v>
       </c>
       <c r="C68" t="str">
-        <f>CONCATENATE(A68,B68)</f>
+        <f t="shared" si="1"/>
         <v>2.  Есть ли информация о гостиницах на М6 в сторону Киева?  @ Отдых</v>
       </c>
     </row>
@@ -2645,7 +3452,7 @@
         <v>468</v>
       </c>
       <c r="C69" t="str">
-        <f>CONCATENATE(A69,B69)</f>
+        <f t="shared" si="1"/>
         <v>2.  Есть ли информация о интересных местах на М6 в сторону Киева?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2657,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="str">
-        <f>CONCATENATE(A70,B70)</f>
+        <f t="shared" si="1"/>
         <v>2.  Можете подсказать, где находится ближайшая заправка по трассе А2 после поворота налево?  @ АЗС</v>
       </c>
     </row>
@@ -2669,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="C71" t="str">
-        <f>CONCATENATE(A71,B71)</f>
+        <f t="shared" si="1"/>
         <v>2.  Можно ли получить информацию о чрезвычайной ситуации на М6 в сторону Киева?  @ ЧС</v>
       </c>
     </row>
@@ -2681,7 +3488,7 @@
         <v>3</v>
       </c>
       <c r="C72" t="str">
-        <f>CONCATENATE(A72,B72)</f>
+        <f t="shared" si="1"/>
         <v>2.  Можно ли узнать о ресторанах на М6 в сторону Киева?  @ Еда</v>
       </c>
     </row>
@@ -2693,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="str">
-        <f>CONCATENATE(A73,B73)</f>
+        <f t="shared" si="1"/>
         <v>2.     Можно ли узнать о ДТП по М6 в сторону Киева?  @ Авария</v>
       </c>
     </row>
@@ -2705,7 +3512,7 @@
         <v>277</v>
       </c>
       <c r="C74" t="str">
-        <f>CONCATENATE(A74,B74)</f>
+        <f t="shared" si="1"/>
         <v>20.  Есть ли возможность остановиться на отдых на М10 в сторону Москвы через 30 км?  @ Отдых</v>
       </c>
     </row>
@@ -2717,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="str">
-        <f>CONCATENATE(A75,B75)</f>
+        <f t="shared" si="1"/>
         <v>20.  Есть ли информация о ЧП на М10 в сторону Москвы через 30 км?  @ ЧС</v>
       </c>
     </row>
@@ -2729,7 +3536,7 @@
         <v>468</v>
       </c>
       <c r="C76" t="str">
-        <f>CONCATENATE(A76,B76)</f>
+        <f t="shared" si="1"/>
         <v>20.  Какие места стоит посетить на М10 в сторону Москвы через 30 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2741,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="C77" t="str">
-        <f>CONCATENATE(A77,B77)</f>
+        <f t="shared" si="1"/>
         <v>20.  Какие рестораны находятся на М10 в сторону Москвы через 30 км?  @ Еда</v>
       </c>
     </row>
@@ -2753,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="str">
-        <f>CONCATENATE(A78,B78)</f>
+        <f t="shared" si="1"/>
         <v>20.  Можно ли узнать о наличии заправки на Е50 в направлении на Владивосток через 120 км?  @ АЗС</v>
       </c>
     </row>
@@ -2765,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="str">
-        <f>CONCATENATE(A79,B79)</f>
+        <f t="shared" si="1"/>
         <v>20.  Можно узнать о столкновении на М10 в сторону Москвы через 30 км?  @ Авария</v>
       </c>
     </row>
@@ -2777,7 +3584,7 @@
         <v>277</v>
       </c>
       <c r="C80" t="str">
-        <f>CONCATENATE(A80,B80)</f>
+        <f t="shared" si="1"/>
         <v>21.  Где можно остановиться на отдых на трассе М5 через 70 км?  @ Отдых</v>
       </c>
     </row>
@@ -2789,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="C81" t="str">
-        <f>CONCATENATE(A81,B81)</f>
+        <f t="shared" si="1"/>
         <v>21.  Где можно поесть на трассе М5 через 70 км?  @ Еда</v>
       </c>
     </row>
@@ -2801,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="str">
-        <f>CONCATENATE(A82,B82)</f>
+        <f t="shared" si="1"/>
         <v>21.  Где на М7 можно заправиться через 90 км после поворота на право?  @ АЗС</v>
       </c>
     </row>
@@ -2813,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="C83" t="str">
-        <f>CONCATENATE(A83,B83)</f>
+        <f t="shared" si="1"/>
         <v>21.  Есть ли информация о произошедшей аварии на трассе Е22 через 70 км?  @ Авария</v>
       </c>
     </row>
@@ -2825,7 +3632,7 @@
         <v>468</v>
       </c>
       <c r="C84" t="str">
-        <f>CONCATENATE(A84,B84)</f>
+        <f t="shared" si="1"/>
         <v>21.  Какие достопримечательности находятся на трассе М5 через 70 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2837,7 +3644,7 @@
         <v>2</v>
       </c>
       <c r="C85" t="str">
-        <f>CONCATENATE(A85,B85)</f>
+        <f t="shared" si="1"/>
         <v>21.  Какие чрезвычайные ситуации произошли на трассе Е22 через 70 км?  @ ЧС</v>
       </c>
     </row>
@@ -2849,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="str">
-        <f>CONCATENATE(A86,B86)</f>
+        <f t="shared" si="1"/>
         <v>22.  Есть ли заправочные станции на Е40 в сторону Варшавы через 180 км?  @ АЗС</v>
       </c>
     </row>
@@ -2861,7 +3668,7 @@
         <v>277</v>
       </c>
       <c r="C87" t="str">
-        <f>CONCATENATE(A87,B87)</f>
+        <f t="shared" si="1"/>
         <v>22.  Есть ли информация о гостиницах на М6 в сторону Киева через 90 км?  @ Отдых</v>
       </c>
     </row>
@@ -2873,7 +3680,7 @@
         <v>468</v>
       </c>
       <c r="C88" t="str">
-        <f>CONCATENATE(A88,B88)</f>
+        <f t="shared" si="1"/>
         <v>22.  Есть ли информация о интересных местах на М6 в сторону Киева через 90 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2885,7 +3692,7 @@
         <v>2</v>
       </c>
       <c r="C89" t="str">
-        <f>CONCATENATE(A89,B89)</f>
+        <f t="shared" si="1"/>
         <v>22.  Можно ли получить информацию о чрезвычайной ситуации на М6 в сторону Киева через 90 км?  @ ЧС</v>
       </c>
     </row>
@@ -2897,7 +3704,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="str">
-        <f>CONCATENATE(A90,B90)</f>
+        <f t="shared" si="1"/>
         <v>22.  Можно ли узнать о ДТП по М6 в сторону Киева через 90 км?  @ Авария</v>
       </c>
     </row>
@@ -2909,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="C91" t="str">
-        <f>CONCATENATE(A91,B91)</f>
+        <f t="shared" si="1"/>
         <v>22.  Можно ли узнать о ресторанах на М6 в сторону Киева через 90 км?  @ Еда</v>
       </c>
     </row>
@@ -2921,7 +3728,7 @@
         <v>468</v>
       </c>
       <c r="C92" t="str">
-        <f>CONCATENATE(A92,B92)</f>
+        <f t="shared" si="1"/>
         <v>23.  Какие достопримечательности можно посетить на трассе Е95 через 70 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -2933,7 +3740,7 @@
         <v>3</v>
       </c>
       <c r="C93" t="str">
-        <f>CONCATENATE(A93,B93)</f>
+        <f t="shared" si="1"/>
         <v>23.  Какие кафе находятся на трассе Е95 через 70 км?  @ Еда</v>
       </c>
     </row>
@@ -2945,7 +3752,7 @@
         <v>277</v>
       </c>
       <c r="C94" t="str">
-        <f>CONCATENATE(A94,B94)</f>
+        <f t="shared" si="1"/>
         <v>23.  Какие отели расположены на трассе Е95 через 70 км?  @ Отдых</v>
       </c>
     </row>
@@ -2957,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="str">
-        <f>CONCATENATE(A95,B95)</f>
+        <f t="shared" si="1"/>
         <v>23.  Пожалуйста, сообщите, где находится автозаправочная станция на М3 перед поворотом налево.  @ АЗС</v>
       </c>
     </row>
@@ -2969,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="str">
-        <f>CONCATENATE(A96,B96)</f>
+        <f t="shared" si="1"/>
         <v>23.  Что произошло на трассе Е95 в районе поворота направо через 50 км?  @ Авария</v>
       </c>
     </row>
@@ -2981,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="C97" t="str">
-        <f>CONCATENATE(A97,B97)</f>
+        <f t="shared" si="1"/>
         <v>23.  Что произошло на трассе Е95 в районе поворота направо через 50 км?  @ ЧС</v>
       </c>
     </row>
@@ -2993,7 +3800,7 @@
         <v>3</v>
       </c>
       <c r="C98" t="str">
-        <f>CONCATENATE(A98,B98)</f>
+        <f t="shared" si="1"/>
         <v>24.  Есть ли информация о закусочных на М4 через 50 км?  @ Еда</v>
       </c>
     </row>
@@ -3005,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="str">
-        <f>CONCATENATE(A99,B99)</f>
+        <f t="shared" si="1"/>
         <v>24.  Имеется ли информация о блокировке движения из-за столкновения на М4 через 50 км?  @ Авария</v>
       </c>
     </row>
@@ -3017,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="str">
-        <f>CONCATENATE(A100,B100)</f>
+        <f t="shared" si="1"/>
         <v>24.  Имеется ли информация о заправках на М1 в сторону Минска через 140 км?  @ АЗС</v>
       </c>
     </row>
@@ -3029,7 +3836,7 @@
         <v>2</v>
       </c>
       <c r="C101" t="str">
-        <f>CONCATENATE(A101,B101)</f>
+        <f t="shared" si="1"/>
         <v>24.  Имеется ли информация о ЧП на М4 через 50 км, приведшем к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -3041,7 +3848,7 @@
         <v>277</v>
       </c>
       <c r="C102" t="str">
-        <f>CONCATENATE(A102,B102)</f>
+        <f t="shared" si="1"/>
         <v>24.  Можно ли найти место для отдыха на М4 через 50 км?  @ Отдых</v>
       </c>
     </row>
@@ -3053,7 +3860,7 @@
         <v>468</v>
       </c>
       <c r="C103" t="str">
-        <f>CONCATENATE(A103,B103)</f>
+        <f t="shared" si="1"/>
         <v>24.  Можно ли узнать о интересных местах на М4 через 50 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3065,7 +3872,7 @@
         <v>3</v>
       </c>
       <c r="C104" t="str">
-        <f>CONCATENATE(A104,B104)</f>
+        <f t="shared" si="1"/>
         <v>25.  Где можно найти кафе на М9 в сторону Оренбурга через 60 км?  @ Еда</v>
       </c>
     </row>
@@ -3077,7 +3884,7 @@
         <v>277</v>
       </c>
       <c r="C105" t="str">
-        <f>CONCATENATE(A105,B105)</f>
+        <f t="shared" si="1"/>
         <v>25.  Где можно найти отель на М9 в сторону Оренбурга через 60 км?  @ Отдых</v>
       </c>
     </row>
@@ -3089,7 +3896,7 @@
         <v>468</v>
       </c>
       <c r="C106" t="str">
-        <f>CONCATENATE(A106,B106)</f>
+        <f t="shared" si="1"/>
         <v>25.  Где находятся интересные места на М9 в сторону Оренбурга через 60 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3101,7 +3908,7 @@
         <v>2</v>
       </c>
       <c r="C107" t="str">
-        <f>CONCATENATE(A107,B107)</f>
+        <f t="shared" si="1"/>
         <v>25.  Есть ли данные о чрезвычайной ситуации на М9 в сторону Оренбурга через 60 км?  @ ЧС</v>
       </c>
     </row>
@@ -3113,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="str">
-        <f>CONCATENATE(A108,B108)</f>
+        <f t="shared" si="1"/>
         <v>25.  Есть ли информация о ДТП по М9 в сторону Оренбурга через 60 км?  @ Авария</v>
       </c>
     </row>
@@ -3125,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="str">
-        <f>CONCATENATE(A109,B109)</f>
+        <f t="shared" si="1"/>
         <v>25.  Можно ли узнать о наличии заправки на М2 через 60 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -3137,7 +3944,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="str">
-        <f>CONCATENATE(A110,B110)</f>
+        <f t="shared" si="1"/>
         <v>26.  Где на М4 можно заправиться через 110 км после начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -3149,7 +3956,7 @@
         <v>468</v>
       </c>
       <c r="C111" t="str">
-        <f>CONCATENATE(A111,B111)</f>
+        <f t="shared" si="1"/>
         <v>26.  Какие достопримечательности доступны на М5 в сторону Новосибирска через 40 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3161,7 +3968,7 @@
         <v>277</v>
       </c>
       <c r="C112" t="str">
-        <f>CONCATENATE(A112,B112)</f>
+        <f t="shared" si="1"/>
         <v>26.  Какие места для отдыха доступны на М5 в сторону Новосибирска через 40 км?  @ Отдых</v>
       </c>
     </row>
@@ -3173,7 +3980,7 @@
         <v>3</v>
       </c>
       <c r="C113" t="str">
-        <f>CONCATENATE(A113,B113)</f>
+        <f t="shared" si="1"/>
         <v>26.  Какие рестораны доступны на М5 в сторону Новосибирска через 40 км?  @ Еда</v>
       </c>
     </row>
@@ -3185,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="str">
-        <f>CONCATENATE(A114,B114)</f>
+        <f t="shared" si="1"/>
         <v>26.  Что произошло на М5 в сторону Новосибирска через 30 км?  @ Авария</v>
       </c>
     </row>
@@ -3197,7 +4004,7 @@
         <v>2</v>
       </c>
       <c r="C115" t="str">
-        <f>CONCATENATE(A115,B115)</f>
+        <f t="shared" si="1"/>
         <v>26.  Что произошло на М5 в сторону Новосибирска через 30 км?  @ ЧС</v>
       </c>
     </row>
@@ -3209,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="str">
-        <f>CONCATENATE(A116,B116)</f>
+        <f t="shared" si="1"/>
         <v>27.  Есть ли заправочные станции на М6 в сторону Киева через 130 км?  @ АЗС</v>
       </c>
     </row>
@@ -3221,7 +4028,7 @@
         <v>468</v>
       </c>
       <c r="C117" t="str">
-        <f>CONCATENATE(A117,B117)</f>
+        <f t="shared" si="1"/>
         <v>27.  Есть ли информация о знаковых местах на трассе Е30 через 80 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3233,7 +4040,7 @@
         <v>277</v>
       </c>
       <c r="C118" t="str">
-        <f>CONCATENATE(A118,B118)</f>
+        <f t="shared" si="1"/>
         <v>27.  Есть ли информация о пансионатах на трассе Е30 через 80 км?  @ Отдых</v>
       </c>
     </row>
@@ -3245,7 +4052,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="str">
-        <f>CONCATENATE(A119,B119)</f>
+        <f t="shared" si="1"/>
         <v>27.  Есть ли информация о случившейся аварии на Е30 через 70 км?  @ Авария</v>
       </c>
     </row>
@@ -3257,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="C120" t="str">
-        <f>CONCATENATE(A120,B120)</f>
+        <f t="shared" si="1"/>
         <v>27.  Можно ли узнать о закусочных на трассе Е30 через 80 км?  @ Еда</v>
       </c>
     </row>
@@ -3269,7 +4076,7 @@
         <v>2</v>
       </c>
       <c r="C121" t="str">
-        <f>CONCATENATE(A121,B121)</f>
+        <f t="shared" si="1"/>
         <v>27.  Можно ли узнать о чрезвычайной ситуации на Е30 через 70 км?  @ ЧС</v>
       </c>
     </row>
@@ -3281,7 +4088,7 @@
         <v>3</v>
       </c>
       <c r="C122" t="str">
-        <f>CONCATENATE(A122,B122)</f>
+        <f t="shared" si="1"/>
         <v>28.  Где можно перекусить на М2 возле развязки через 30 км?  @ Еда</v>
       </c>
     </row>
@@ -3293,7 +4100,7 @@
         <v>277</v>
       </c>
       <c r="C123" t="str">
-        <f>CONCATENATE(A123,B123)</f>
+        <f t="shared" si="1"/>
         <v>28.  Где можно сделать остановку для отдыха на М2 возле развязки через 30 км?  @ Отдых</v>
       </c>
     </row>
@@ -3305,7 +4112,7 @@
         <v>468</v>
       </c>
       <c r="C124" t="str">
-        <f>CONCATENATE(A124,B124)</f>
+        <f t="shared" si="1"/>
         <v>28.  Какие интересные места можно увидеть на М2 возле развязки через 30 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3317,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="C125" t="str">
-        <f>CONCATENATE(A125,B125)</f>
+        <f t="shared" si="1"/>
         <v>28.  Какие ЧС произошли на М2 возле развязки через 30 км?  @ ЧС</v>
       </c>
     </row>
@@ -3329,7 +4136,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="str">
-        <f>CONCATENATE(A126,B126)</f>
+        <f t="shared" si="1"/>
         <v>28.  Можно ли узнать о ДТП по М2 возле развязки через 30 км?  @ Авария</v>
       </c>
     </row>
@@ -3341,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="C127" t="str">
-        <f>CONCATENATE(A127,B127)</f>
+        <f t="shared" si="1"/>
         <v>28.  Пожалуйста, предоставьте информацию о заправках на Е20 перед выездом на город через 70 км.  @ АЗС</v>
       </c>
     </row>
@@ -3353,7 +4160,7 @@
         <v>468</v>
       </c>
       <c r="C128" t="str">
-        <f>CONCATENATE(A128,B128)</f>
+        <f t="shared" si="1"/>
         <v>29.  Где расположены достопримечательности на трассе Е40 через 60 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3365,7 +4172,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="str">
-        <f>CONCATENATE(A129,B129)</f>
+        <f t="shared" ref="C129:C192" si="2">CONCATENATE(A129,B129)</f>
         <v>29.  Есть ли информация о кафе на трассе Е40 через 50 км?  @ Еда</v>
       </c>
     </row>
@@ -3377,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="str">
-        <f>CONCATENATE(A130,B130)</f>
+        <f t="shared" si="2"/>
         <v>29.  Имеются ли заправки на М8 через 40 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -3389,7 +4196,7 @@
         <v>277</v>
       </c>
       <c r="C131" t="str">
-        <f>CONCATENATE(A131,B131)</f>
+        <f t="shared" si="2"/>
         <v>29.  Какие кемпинги находятся на трассе Е40 через 60 км?  @ Отдых</v>
       </c>
     </row>
@@ -3401,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="C132" t="str">
-        <f>CONCATENATE(A132,B132)</f>
+        <f t="shared" si="2"/>
         <v>29.  Что вызвало чрезвычайную ситуацию на трассе Е40 через 50 км, приведшую к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -3413,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="str">
-        <f>CONCATENATE(A133,B133)</f>
+        <f t="shared" si="2"/>
         <v>29.  Что произошло на трассе Е40, что привело к блокировке движения через 50 км?  @ Авария</v>
       </c>
     </row>
@@ -3425,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="str">
-        <f>CONCATENATE(A134,B134)</f>
+        <f t="shared" si="2"/>
         <v>3.  Имеется ли информация о заправках вдоль трассы М7 на 120 км от начала?  @ АЗС</v>
       </c>
     </row>
@@ -3437,7 +4244,7 @@
         <v>468</v>
       </c>
       <c r="C135" t="str">
-        <f>CONCATENATE(A135,B135)</f>
+        <f t="shared" si="2"/>
         <v>3.  Какие достопримечательности можно посетить на трассе Е95?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3449,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="C136" t="str">
-        <f>CONCATENATE(A136,B136)</f>
+        <f t="shared" si="2"/>
         <v>3.  Какие кафе находятся на трассе Е95?  @ Еда</v>
       </c>
     </row>
@@ -3461,7 +4268,7 @@
         <v>277</v>
       </c>
       <c r="C137" t="str">
-        <f>CONCATENATE(A137,B137)</f>
+        <f t="shared" si="2"/>
         <v>3.  Какие отели расположены на трассе Е95?  @ Отдых</v>
       </c>
     </row>
@@ -3473,7 +4280,7 @@
         <v>2</v>
       </c>
       <c r="C138" t="str">
-        <f>CONCATENATE(A138,B138)</f>
+        <f t="shared" si="2"/>
         <v>3.  Что произошло на трассе Е95, вызвавшее аварию?  @ ЧС</v>
       </c>
     </row>
@@ -3485,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="C139" t="str">
-        <f>CONCATENATE(A139,B139)</f>
+        <f t="shared" si="2"/>
         <v>3.     Что произошло на трассе Е95 в районе поворота?  @ Авария</v>
       </c>
     </row>
@@ -3497,7 +4304,7 @@
         <v>277</v>
       </c>
       <c r="C140" t="str">
-        <f>CONCATENATE(A140,B140)</f>
+        <f t="shared" si="2"/>
         <v>30.  Есть ли возможность остановиться на отдых на М10 в сторону Москвы через 40 км?  @ Отдых</v>
       </c>
     </row>
@@ -3509,7 +4316,7 @@
         <v>2</v>
       </c>
       <c r="C141" t="str">
-        <f>CONCATENATE(A141,B141)</f>
+        <f t="shared" si="2"/>
         <v>30.  Есть ли информация о ЧП на М10 в сторону Москвы через 40 км?  @ ЧС</v>
       </c>
     </row>
@@ -3521,7 +4328,7 @@
         <v>468</v>
       </c>
       <c r="C142" t="str">
-        <f>CONCATENATE(A142,B142)</f>
+        <f t="shared" si="2"/>
         <v>30.  Какие места стоит посетить на М10 в сторону Москвы через 50 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3533,7 +4340,7 @@
         <v>3</v>
       </c>
       <c r="C143" t="str">
-        <f>CONCATENATE(A143,B143)</f>
+        <f t="shared" si="2"/>
         <v>30.  Какие рестораны находятся на М10 в сторону Москвы через 40 км?  @ Еда</v>
       </c>
     </row>
@@ -3545,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="str">
-        <f>CONCATENATE(A144,B144)</f>
+        <f t="shared" si="2"/>
         <v>30.  Можно ли узнать о наличии заправки на М9 в сторону Оренбурга через 80 км?  @ АЗС</v>
       </c>
     </row>
@@ -3557,7 +4364,7 @@
         <v>1</v>
       </c>
       <c r="C145" t="str">
-        <f>CONCATENATE(A145,B145)</f>
+        <f t="shared" si="2"/>
         <v>30.  Можно узнать о столкновении на М10 в сторону Москвы через 40 км?  @ Авария</v>
       </c>
     </row>
@@ -3569,7 +4376,7 @@
         <v>277</v>
       </c>
       <c r="C146" t="str">
-        <f>CONCATENATE(A146,B146)</f>
+        <f t="shared" si="2"/>
         <v>31.  Где можно остановиться на отдых на трассе М5 через 90 км?  @ Отдых</v>
       </c>
     </row>
@@ -3581,7 +4388,7 @@
         <v>3</v>
       </c>
       <c r="C147" t="str">
-        <f>CONCATENATE(A147,B147)</f>
+        <f t="shared" si="2"/>
         <v>31.  Где можно поесть на трассе М5 через 90 км?  @ Еда</v>
       </c>
     </row>
@@ -3593,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="str">
-        <f>CONCATENATE(A148,B148)</f>
+        <f t="shared" si="2"/>
         <v>31.  Где на Е30 можно заправиться через 50 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -3605,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="str">
-        <f>CONCATENATE(A149,B149)</f>
+        <f t="shared" si="2"/>
         <v>31.  Есть ли информация о произошедшей аварии на трассе Е22 через 80 км?  @ Авария</v>
       </c>
     </row>
@@ -3617,7 +4424,7 @@
         <v>468</v>
       </c>
       <c r="C150" t="str">
-        <f>CONCATENATE(A150,B150)</f>
+        <f t="shared" si="2"/>
         <v>31.  Какие достопримечательности находятся на трассе М5 через 90 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3629,7 +4436,7 @@
         <v>2</v>
       </c>
       <c r="C151" t="str">
-        <f>CONCATENATE(A151,B151)</f>
+        <f t="shared" si="2"/>
         <v>31.  Какие чрезвычайные ситуации произошли на трассе Е22 через 80 км?  @ ЧС</v>
       </c>
     </row>
@@ -3641,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="str">
-        <f>CONCATENATE(A152,B152)</f>
+        <f t="shared" si="2"/>
         <v>32.  Есть ли заправочные станции на А3 в сторону Самары через 100 км?  @ АЗС</v>
       </c>
     </row>
@@ -3653,7 +4460,7 @@
         <v>277</v>
       </c>
       <c r="C153" t="str">
-        <f>CONCATENATE(A153,B153)</f>
+        <f t="shared" si="2"/>
         <v>32.  Есть ли информация о гостиницах на М6 в сторону Киева через 110 км?  @ Отдых</v>
       </c>
     </row>
@@ -3665,7 +4472,7 @@
         <v>468</v>
       </c>
       <c r="C154" t="str">
-        <f>CONCATENATE(A154,B154)</f>
+        <f t="shared" si="2"/>
         <v>32.  Есть ли информация о интересных местах на М6 в сторону Киева через 110 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3677,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="C155" t="str">
-        <f>CONCATENATE(A155,B155)</f>
+        <f t="shared" si="2"/>
         <v>32.  Можно ли получить информацию о чрезвычайной ситуации на М6 в сторону Киева через 110 км?  @ ЧС</v>
       </c>
     </row>
@@ -3689,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="str">
-        <f>CONCATENATE(A156,B156)</f>
+        <f t="shared" si="2"/>
         <v>32.  Можно ли узнать о ДТП по М6 в сторону Киева через 110 км?  @ Авария</v>
       </c>
     </row>
@@ -3701,7 +4508,7 @@
         <v>3</v>
       </c>
       <c r="C157" t="str">
-        <f>CONCATENATE(A157,B157)</f>
+        <f t="shared" si="2"/>
         <v>32.  Можно ли узнать о ресторанах на М6 в сторону Киева через 110 км?  @ Еда</v>
       </c>
     </row>
@@ -3713,7 +4520,7 @@
         <v>468</v>
       </c>
       <c r="C158" t="str">
-        <f>CONCATENATE(A158,B158)</f>
+        <f t="shared" si="2"/>
         <v>33.  Какие достопримечательности можно посетить на трассе Е95 через 90 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3725,7 +4532,7 @@
         <v>3</v>
       </c>
       <c r="C159" t="str">
-        <f>CONCATENATE(A159,B159)</f>
+        <f t="shared" si="2"/>
         <v>33.  Какие кафе находятся на трассе Е95 через 90 км?  @ Еда</v>
       </c>
     </row>
@@ -3737,7 +4544,7 @@
         <v>277</v>
       </c>
       <c r="C160" t="str">
-        <f>CONCATENATE(A160,B160)</f>
+        <f t="shared" si="2"/>
         <v>33.  Какие отели расположены на трассе Е95 через 90 км?  @ Отдых</v>
       </c>
     </row>
@@ -3749,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="str">
-        <f>CONCATENATE(A161,B161)</f>
+        <f t="shared" si="2"/>
         <v>33.  Пожалуйста, сообщите, где находится автозаправочная станция на М10 перед поворотом налево через 60 км.  @ АЗС</v>
       </c>
     </row>
@@ -3761,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="str">
-        <f>CONCATENATE(A162,B162)</f>
+        <f t="shared" si="2"/>
         <v>33.  Что произошло на трассе Е95 в районе поворота направо через 70 км?  @ Авария</v>
       </c>
     </row>
@@ -3773,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="C163" t="str">
-        <f>CONCATENATE(A163,B163)</f>
+        <f t="shared" si="2"/>
         <v>33.  Что произошло на трассе Е95 в районе поворота направо через 70 км?  @ ЧС</v>
       </c>
     </row>
@@ -3785,7 +4592,7 @@
         <v>3</v>
       </c>
       <c r="C164" t="str">
-        <f>CONCATENATE(A164,B164)</f>
+        <f t="shared" si="2"/>
         <v>34.  Есть ли информация о закусочных на М4 через 70 км?  @ Еда</v>
       </c>
     </row>
@@ -3797,7 +4604,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="str">
-        <f>CONCATENATE(A165,B165)</f>
+        <f t="shared" si="2"/>
         <v>34.  Имеется ли информация о блокировке движения из-за столкновения на М4 через 70 км?  @ Авария</v>
       </c>
     </row>
@@ -3809,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="str">
-        <f>CONCATENATE(A166,B166)</f>
+        <f t="shared" si="2"/>
         <v>34.  Имеется ли информация о заправках на М5 в сторону Новосибирска через 150 км?  @ АЗС</v>
       </c>
     </row>
@@ -3821,7 +4628,7 @@
         <v>2</v>
       </c>
       <c r="C167" t="str">
-        <f>CONCATENATE(A167,B167)</f>
+        <f t="shared" si="2"/>
         <v>34.  Имеется ли информация о ЧП на М4 через 70 км, приведшем к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -3833,7 +4640,7 @@
         <v>277</v>
       </c>
       <c r="C168" t="str">
-        <f>CONCATENATE(A168,B168)</f>
+        <f t="shared" si="2"/>
         <v>34.  Можно ли найти место для отдыха на М4 через 70 км?  @ Отдых</v>
       </c>
     </row>
@@ -3845,7 +4652,7 @@
         <v>468</v>
       </c>
       <c r="C169" t="str">
-        <f>CONCATENATE(A169,B169)</f>
+        <f t="shared" si="2"/>
         <v>34.  Можно ли узнать о интересных местах на М4 через 70 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3857,7 +4664,7 @@
         <v>3</v>
       </c>
       <c r="C170" t="str">
-        <f>CONCATENATE(A170,B170)</f>
+        <f t="shared" si="2"/>
         <v>35.  Где можно найти кафе на М9 в сторону Оренбурга через 80 км?  @ Еда</v>
       </c>
     </row>
@@ -3869,7 +4676,7 @@
         <v>277</v>
       </c>
       <c r="C171" t="str">
-        <f>CONCATENATE(A171,B171)</f>
+        <f t="shared" si="2"/>
         <v>35.  Где можно найти отель на М9 в сторону Оренбурга через 80 км?  @ Отдых</v>
       </c>
     </row>
@@ -3881,7 +4688,7 @@
         <v>468</v>
       </c>
       <c r="C172" t="str">
-        <f>CONCATENATE(A172,B172)</f>
+        <f t="shared" si="2"/>
         <v>35.  Где находятся интересные места на М9 в сторону Оренбурга через 80 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3893,7 +4700,7 @@
         <v>2</v>
       </c>
       <c r="C173" t="str">
-        <f>CONCATENATE(A173,B173)</f>
+        <f t="shared" si="2"/>
         <v>35.  Есть ли данные о чрезвычайной ситуации на М9 в сторону Оренбурга через 80 км?  @ ЧС</v>
       </c>
     </row>
@@ -3905,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="C174" t="str">
-        <f>CONCATENATE(A174,B174)</f>
+        <f t="shared" si="2"/>
         <v>35.  Есть ли информация о ДТП по М9 в сторону Оренбурга через 80 км?  @ Авария</v>
       </c>
     </row>
@@ -3917,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="str">
-        <f>CONCATENATE(A175,B175)</f>
+        <f t="shared" si="2"/>
         <v>35.  Можно ли узнать о наличии заправки на Е50 в направлении на Владивосток через 80 км?  @ АЗС</v>
       </c>
     </row>
@@ -3929,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="str">
-        <f>CONCATENATE(A176,B176)</f>
+        <f t="shared" si="2"/>
         <v>36.  Где на М7 можно заправиться через 70 км после поворота на право?  @ АЗС</v>
       </c>
     </row>
@@ -3941,7 +4748,7 @@
         <v>468</v>
       </c>
       <c r="C177" t="str">
-        <f>CONCATENATE(A177,B177)</f>
+        <f t="shared" si="2"/>
         <v>36.  Какие достопримечательности доступны на М5 в сторону Новосибирска через 50 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -3953,7 +4760,7 @@
         <v>277</v>
       </c>
       <c r="C178" t="str">
-        <f>CONCATENATE(A178,B178)</f>
+        <f t="shared" si="2"/>
         <v>36.  Какие места для отдыха доступны на М5 в сторону Новосибирска через 50 км?  @ Отдых</v>
       </c>
     </row>
@@ -3965,7 +4772,7 @@
         <v>3</v>
       </c>
       <c r="C179" t="str">
-        <f>CONCATENATE(A179,B179)</f>
+        <f t="shared" si="2"/>
         <v>36.  Какие рестораны доступны на М5 в сторону Новосибирска через 50 км?  @ Еда</v>
       </c>
     </row>
@@ -3977,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="C180" t="str">
-        <f>CONCATENATE(A180,B180)</f>
+        <f t="shared" si="2"/>
         <v>36.  Что произошло на М5 в сторону Новосибирска через 40 км?  @ Авария</v>
       </c>
     </row>
@@ -3989,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="C181" t="str">
-        <f>CONCATENATE(A181,B181)</f>
+        <f t="shared" si="2"/>
         <v>36.  Что произошло на М5 в сторону Новосибирска через 40 км?  @ ЧС</v>
       </c>
     </row>
@@ -4001,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="C182" t="str">
-        <f>CONCATENATE(A182,B182)</f>
+        <f t="shared" si="2"/>
         <v>37.  Есть ли заправочные станции на Е40 в сторону Варшавы через 120 км?  @ АЗС</v>
       </c>
     </row>
@@ -4013,7 +4820,7 @@
         <v>468</v>
       </c>
       <c r="C183" t="str">
-        <f>CONCATENATE(A183,B183)</f>
+        <f t="shared" si="2"/>
         <v>37.  Есть ли информация о знаковых местах на трассе Е30 через 100 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4025,7 +4832,7 @@
         <v>277</v>
       </c>
       <c r="C184" t="str">
-        <f>CONCATENATE(A184,B184)</f>
+        <f t="shared" si="2"/>
         <v>37.  Есть ли информация о пансионатах на трассе Е30 через 100 км?  @ Отдых</v>
       </c>
     </row>
@@ -4037,7 +4844,7 @@
         <v>1</v>
       </c>
       <c r="C185" t="str">
-        <f>CONCATENATE(A185,B185)</f>
+        <f t="shared" si="2"/>
         <v>37.  Есть ли информация о случившейся аварии на Е30 через 80 км?  @ Авария</v>
       </c>
     </row>
@@ -4049,7 +4856,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="str">
-        <f>CONCATENATE(A186,B186)</f>
+        <f t="shared" si="2"/>
         <v>37.  Можно ли узнать о закусочных на трассе Е30 через 100 км?  @ Еда</v>
       </c>
     </row>
@@ -4061,7 +4868,7 @@
         <v>2</v>
       </c>
       <c r="C187" t="str">
-        <f>CONCATENATE(A187,B187)</f>
+        <f t="shared" si="2"/>
         <v>37.  Можно ли узнать о чрезвычайной ситуации на Е30 через 80 км?  @ ЧС</v>
       </c>
     </row>
@@ -4073,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="str">
-        <f>CONCATENATE(A188,B188)</f>
+        <f t="shared" si="2"/>
         <v>38.  Где можно перекусить на М2 возле развязки через 40 км?  @ Еда</v>
       </c>
     </row>
@@ -4085,7 +4892,7 @@
         <v>277</v>
       </c>
       <c r="C189" t="str">
-        <f>CONCATENATE(A189,B189)</f>
+        <f t="shared" si="2"/>
         <v>38.  Где можно сделать остановку для отдыха на М2 возле развязки через 40 км?  @ Отдых</v>
       </c>
     </row>
@@ -4097,7 +4904,7 @@
         <v>468</v>
       </c>
       <c r="C190" t="str">
-        <f>CONCATENATE(A190,B190)</f>
+        <f t="shared" si="2"/>
         <v>38.  Какие интересные места можно увидеть на М2 возле развязки через 40 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4109,7 +4916,7 @@
         <v>2</v>
       </c>
       <c r="C191" t="str">
-        <f>CONCATENATE(A191,B191)</f>
+        <f t="shared" si="2"/>
         <v>38.  Какие ЧС произошли на М2 возле развязки через 40 км?  @ ЧС</v>
       </c>
     </row>
@@ -4121,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="str">
-        <f>CONCATENATE(A192,B192)</f>
+        <f t="shared" si="2"/>
         <v>38.  Можно ли узнать о ДТП по М2 возле развязки через 40 км?  @ Авария</v>
       </c>
     </row>
@@ -4133,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="str">
-        <f>CONCATENATE(A193,B193)</f>
+        <f t="shared" ref="C193:C256" si="3">CONCATENATE(A193,B193)</f>
         <v>38.  Пожалуйста, предоставьте информацию о заправках на М3 перед поворотом налево через 50 км.  @ АЗС</v>
       </c>
     </row>
@@ -4145,7 +4952,7 @@
         <v>468</v>
       </c>
       <c r="C194" t="str">
-        <f>CONCATENATE(A194,B194)</f>
+        <f t="shared" si="3"/>
         <v>39.  Где расположены достопримечательности на трассе Е40 через 70 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4157,7 +4964,7 @@
         <v>3</v>
       </c>
       <c r="C195" t="str">
-        <f>CONCATENATE(A195,B195)</f>
+        <f t="shared" si="3"/>
         <v>39.  Есть ли информация о кафе на трассе Е40 через 60 км?  @ Еда</v>
       </c>
     </row>
@@ -4169,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="str">
-        <f>CONCATENATE(A196,B196)</f>
+        <f t="shared" si="3"/>
         <v>39.  Имеются ли заправки на М1 в сторону Минска через 90 км?  @ АЗС</v>
       </c>
     </row>
@@ -4181,7 +4988,7 @@
         <v>277</v>
       </c>
       <c r="C197" t="str">
-        <f>CONCATENATE(A197,B197)</f>
+        <f t="shared" si="3"/>
         <v>39.  Какие кемпинги находятся на трассе Е40 через 70 км?  @ Отдых</v>
       </c>
     </row>
@@ -4193,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="C198" t="str">
-        <f>CONCATENATE(A198,B198)</f>
+        <f t="shared" si="3"/>
         <v>39.  Что вызвало чрезвычайную ситуацию на трассе Е40 через 60 км, приведшую к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -4205,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="C199" t="str">
-        <f>CONCATENATE(A199,B199)</f>
+        <f t="shared" si="3"/>
         <v>39.  Что произошло на трассе Е40, что привело к блокировке движения через 60 км?  @ Авария</v>
       </c>
     </row>
@@ -4217,7 +5024,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="str">
-        <f>CONCATENATE(A200,B200)</f>
+        <f t="shared" si="3"/>
         <v>4.  Есть ли информация о закусочных на М4?  @ Еда</v>
       </c>
     </row>
@@ -4229,7 +5036,7 @@
         <v>2</v>
       </c>
       <c r="C201" t="str">
-        <f>CONCATENATE(A201,B201)</f>
+        <f t="shared" si="3"/>
         <v>4.  Имеется ли информация о ЧП на М4, приведшем к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -4241,7 +5048,7 @@
         <v>277</v>
       </c>
       <c r="C202" t="str">
-        <f>CONCATENATE(A202,B202)</f>
+        <f t="shared" si="3"/>
         <v>4.  Можно ли найти место для отдыха на М4?  @ Отдых</v>
       </c>
     </row>
@@ -4253,7 +5060,7 @@
         <v>468</v>
       </c>
       <c r="C203" t="str">
-        <f>CONCATENATE(A203,B203)</f>
+        <f t="shared" si="3"/>
         <v>4.  Можно ли узнать о интересных местах на М4?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4265,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="str">
-        <f>CONCATENATE(A204,B204)</f>
+        <f t="shared" si="3"/>
         <v>4.  Пожалуйста, сообщите, где можно заправиться по М9 в направлении на Казань через 30 км.  @ АЗС</v>
       </c>
     </row>
@@ -4277,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="C205" t="str">
-        <f>CONCATENATE(A205,B205)</f>
+        <f t="shared" si="3"/>
         <v>4.     Имеется ли информация о блокировке движения из-за столкновения на М4?  @ Авария</v>
       </c>
     </row>
@@ -4289,7 +5096,7 @@
         <v>277</v>
       </c>
       <c r="C206" t="str">
-        <f>CONCATENATE(A206,B206)</f>
+        <f t="shared" si="3"/>
         <v>40.  Есть ли возможность остановиться на отдых на М10 в сторону Москвы через 50 км?  @ Отдых</v>
       </c>
     </row>
@@ -4301,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="C207" t="str">
-        <f>CONCATENATE(A207,B207)</f>
+        <f t="shared" si="3"/>
         <v>40.  Есть ли информация о ЧП на М10 в сторону Москвы через 50 км?  @ ЧС</v>
       </c>
     </row>
@@ -4313,7 +5120,7 @@
         <v>468</v>
       </c>
       <c r="C208" t="str">
-        <f>CONCATENATE(A208,B208)</f>
+        <f t="shared" si="3"/>
         <v>40.  Какие места стоит посетить на М10 в сторону Москвы через 60 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4325,7 +5132,7 @@
         <v>3</v>
       </c>
       <c r="C209" t="str">
-        <f>CONCATENATE(A209,B209)</f>
+        <f t="shared" si="3"/>
         <v>40.  Какие рестораны находятся на М10 в сторону Москвы через 50 км?  @ Еда</v>
       </c>
     </row>
@@ -4337,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="C210" t="str">
-        <f>CONCATENATE(A210,B210)</f>
+        <f t="shared" si="3"/>
         <v>40.  Можно ли узнать о наличии заправки на М2 через 40 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -4349,7 +5156,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="str">
-        <f>CONCATENATE(A211,B211)</f>
+        <f t="shared" si="3"/>
         <v>40.  Можно узнать о столкновении на М10 в сторону Москвы через 50 км?  @ Авария</v>
       </c>
     </row>
@@ -4361,7 +5168,7 @@
         <v>277</v>
       </c>
       <c r="C212" t="str">
-        <f>CONCATENATE(A212,B212)</f>
+        <f t="shared" si="3"/>
         <v>41.  Где можно остановиться на отдых на трассе М5 через 110 км?  @ Отдых</v>
       </c>
     </row>
@@ -4373,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="str">
-        <f>CONCATENATE(A213,B213)</f>
+        <f t="shared" si="3"/>
         <v>41.  Где на М4 можно заправиться через 70 км после начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -4385,7 +5192,7 @@
         <v>1</v>
       </c>
       <c r="C214" t="str">
-        <f>CONCATENATE(A214,B214)</f>
+        <f t="shared" si="3"/>
         <v>41.  Есть ли информация о произошедшей аварии на трассе Е22 через 90 км?  @ Авария</v>
       </c>
     </row>
@@ -4397,7 +5204,7 @@
         <v>468</v>
       </c>
       <c r="C215" t="str">
-        <f>CONCATENATE(A215,B215)</f>
+        <f t="shared" si="3"/>
         <v>41.  Какие достопримечательности находятся на трассе М5 через 110 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4409,7 +5216,7 @@
         <v>2</v>
       </c>
       <c r="C216" t="str">
-        <f>CONCATENATE(A216,B216)</f>
+        <f t="shared" si="3"/>
         <v>41.  Какие чрезвычайные ситуации произошли на трассе Е22 через 90 км?  @ ЧС</v>
       </c>
     </row>
@@ -4421,7 +5228,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="str">
-        <f>CONCATENATE(A217,B217)</f>
+        <f t="shared" si="3"/>
         <v>42.  Есть ли заправочные станции на М6 в сторону Киева через 100 км?  @ АЗС</v>
       </c>
     </row>
@@ -4433,7 +5240,7 @@
         <v>277</v>
       </c>
       <c r="C218" t="str">
-        <f>CONCATENATE(A218,B218)</f>
+        <f t="shared" si="3"/>
         <v>42.  Есть ли информация о гостиницах на М6 в сторону Киева через 130 км?  @ Отдых</v>
       </c>
     </row>
@@ -4445,7 +5252,7 @@
         <v>468</v>
       </c>
       <c r="C219" t="str">
-        <f>CONCATENATE(A219,B219)</f>
+        <f t="shared" si="3"/>
         <v>42.  Есть ли информация о интересных местах на М6 в сторону Киева через 130 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4457,7 +5264,7 @@
         <v>2</v>
       </c>
       <c r="C220" t="str">
-        <f>CONCATENATE(A220,B220)</f>
+        <f t="shared" si="3"/>
         <v>42.  Можно ли получить информацию о чрезвычайной ситуации на М6 в сторону Киева через 130 км?  @ ЧС</v>
       </c>
     </row>
@@ -4469,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="C221" t="str">
-        <f>CONCATENATE(A221,B221)</f>
+        <f t="shared" si="3"/>
         <v>42.  Можно ли узнать о ДТП по М6 в сторону Киева через 130 км?  @ Авария</v>
       </c>
     </row>
@@ -4481,7 +5288,7 @@
         <v>468</v>
       </c>
       <c r="C222" t="str">
-        <f>CONCATENATE(A222,B222)</f>
+        <f t="shared" si="3"/>
         <v>43.  Какие достопримечательности можно посетить на трассе Е95 через 110 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4493,7 +5300,7 @@
         <v>277</v>
       </c>
       <c r="C223" t="str">
-        <f>CONCATENATE(A223,B223)</f>
+        <f t="shared" si="3"/>
         <v>43.  Какие отели расположены на трассе Е95 через 110 км?  @ Отдых</v>
       </c>
     </row>
@@ -4505,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="str">
-        <f>CONCATENATE(A224,B224)</f>
+        <f t="shared" si="3"/>
         <v>43.  Пожалуйста, сообщите, где находится автозаправочная станция на Е20 перед выездом на город через 50 км.  @ АЗС</v>
       </c>
     </row>
@@ -4517,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="C225" t="str">
-        <f>CONCATENATE(A225,B225)</f>
+        <f t="shared" si="3"/>
         <v>43.  Что произошло на трассе Е95 в районе поворота налево через 90 км?  @ Авария</v>
       </c>
     </row>
@@ -4529,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="C226" t="str">
-        <f>CONCATENATE(A226,B226)</f>
+        <f t="shared" si="3"/>
         <v>43.  Что произошло на трассе Е95 в районе поворота направо через 90 км?  @ ЧС</v>
       </c>
     </row>
@@ -4541,7 +5348,7 @@
         <v>1</v>
       </c>
       <c r="C227" t="str">
-        <f>CONCATENATE(A227,B227)</f>
+        <f t="shared" si="3"/>
         <v>44.  Имеется ли информация о блокировке движения из-за столкновения на М4 через 90 км?  @ Авария</v>
       </c>
     </row>
@@ -4553,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="C228" t="str">
-        <f>CONCATENATE(A228,B228)</f>
+        <f t="shared" si="3"/>
         <v>44.  Имеется ли информация о ЧП на М4 через 90 км, приведшем к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -4565,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="str">
-        <f>CONCATENATE(A229,B229)</f>
+        <f t="shared" si="3"/>
         <v>44.  Имеются ли заправки на М8 через 20 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -4577,7 +5384,7 @@
         <v>277</v>
       </c>
       <c r="C230" t="str">
-        <f>CONCATENATE(A230,B230)</f>
+        <f t="shared" si="3"/>
         <v>44.  Можно ли найти место для отдыха на М4 через 90 км?  @ Отдых</v>
       </c>
     </row>
@@ -4589,7 +5396,7 @@
         <v>468</v>
       </c>
       <c r="C231" t="str">
-        <f>CONCATENATE(A231,B231)</f>
+        <f t="shared" si="3"/>
         <v>44.  Можно ли узнать о интересных местах на М4 через 90 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4601,7 +5408,7 @@
         <v>277</v>
       </c>
       <c r="C232" t="str">
-        <f>CONCATENATE(A232,B232)</f>
+        <f t="shared" si="3"/>
         <v>45.  Где можно найти отель на М9 в сторону Оренбурга через 100 км?  @ Отдых</v>
       </c>
     </row>
@@ -4613,7 +5420,7 @@
         <v>468</v>
       </c>
       <c r="C233" t="str">
-        <f>CONCATENATE(A233,B233)</f>
+        <f t="shared" si="3"/>
         <v>45.  Где находятся интересные места на М9 в сторону Оренбурга через 100 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4625,7 +5432,7 @@
         <v>2</v>
       </c>
       <c r="C234" t="str">
-        <f>CONCATENATE(A234,B234)</f>
+        <f t="shared" si="3"/>
         <v>45.  Есть ли данные о чрезвычайной ситуации на М9 в сторону Оренбурга через 100 км?  @ ЧС</v>
       </c>
     </row>
@@ -4637,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="C235" t="str">
-        <f>CONCATENATE(A235,B235)</f>
+        <f t="shared" si="3"/>
         <v>45.  Есть ли информация о ДТП по М9 в сторону Оренбурга через 100 км?  @ Авария</v>
       </c>
     </row>
@@ -4649,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="str">
-        <f>CONCATENATE(A236,B236)</f>
+        <f t="shared" si="3"/>
         <v>45.  Можно ли узнать о наличии заправки на М9 в сторону Оренбурга через 40 км?  @ АЗС</v>
       </c>
     </row>
@@ -4661,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="str">
-        <f>CONCATENATE(A237,B237)</f>
+        <f t="shared" si="3"/>
         <v>46.  Где на Е30 можно заправиться через 30 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -4673,7 +5480,7 @@
         <v>468</v>
       </c>
       <c r="C238" t="str">
-        <f>CONCATENATE(A238,B238)</f>
+        <f t="shared" si="3"/>
         <v>46.  Какие достопримечательности доступны на М5 в сторону Новосибирска через 70 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4685,7 +5492,7 @@
         <v>277</v>
       </c>
       <c r="C239" t="str">
-        <f>CONCATENATE(A239,B239)</f>
+        <f t="shared" si="3"/>
         <v>46.  Какие места для отдыха доступны на М5 в сторону Новосибирска через 60 км?  @ Отдых</v>
       </c>
     </row>
@@ -4697,7 +5504,7 @@
         <v>1</v>
       </c>
       <c r="C240" t="str">
-        <f>CONCATENATE(A240,B240)</f>
+        <f t="shared" si="3"/>
         <v>46.  Что произошло на М5 в сторону Новосибирска через 50 км?  @ Авария</v>
       </c>
     </row>
@@ -4709,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="C241" t="str">
-        <f>CONCATENATE(A241,B241)</f>
+        <f t="shared" si="3"/>
         <v>46.  Что произошло на М5 в сторону Новосибирска через 50 км?  @ ЧС</v>
       </c>
     </row>
@@ -4721,7 +5528,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="str">
-        <f>CONCATENATE(A242,B242)</f>
+        <f t="shared" si="3"/>
         <v>47.  Есть ли заправочные станции на А3 в сторону Самары через 70 км?  @ АЗС</v>
       </c>
     </row>
@@ -4733,7 +5540,7 @@
         <v>468</v>
       </c>
       <c r="C243" t="str">
-        <f>CONCATENATE(A243,B243)</f>
+        <f t="shared" si="3"/>
         <v>47.  Есть ли информация о знаковых местах на трассе Е30 через 120 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4745,7 +5552,7 @@
         <v>277</v>
       </c>
       <c r="C244" t="str">
-        <f>CONCATENATE(A244,B244)</f>
+        <f t="shared" si="3"/>
         <v>47.  Есть ли информация о пансионатах на трассе Е30 через 120 км?  @ Отдых</v>
       </c>
     </row>
@@ -4757,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="C245" t="str">
-        <f>CONCATENATE(A245,B245)</f>
+        <f t="shared" si="3"/>
         <v>47.  Есть ли информация о случившейся аварии на Е30 через 90 км?  @ Авария</v>
       </c>
     </row>
@@ -4769,7 +5576,7 @@
         <v>2</v>
       </c>
       <c r="C246" t="str">
-        <f>CONCATENATE(A246,B246)</f>
+        <f t="shared" si="3"/>
         <v>47.  Можно ли узнать о чрезвычайной ситуации на Е30 через 90 км?  @ ЧС</v>
       </c>
     </row>
@@ -4781,7 +5588,7 @@
         <v>277</v>
       </c>
       <c r="C247" t="str">
-        <f>CONCATENATE(A247,B247)</f>
+        <f t="shared" si="3"/>
         <v>48.  Где можно сделать остановку для отдыха на М2 возле развязки через 50 км?  @ Отдых</v>
       </c>
     </row>
@@ -4793,7 +5600,7 @@
         <v>468</v>
       </c>
       <c r="C248" t="str">
-        <f>CONCATENATE(A248,B248)</f>
+        <f t="shared" si="3"/>
         <v>48.  Какие интересные места можно увидеть на М2 возле развязки через 50 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4805,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="C249" t="str">
-        <f>CONCATENATE(A249,B249)</f>
+        <f t="shared" si="3"/>
         <v>48.  Какие ЧС произошли на М2 возле развязки через 50 км?  @ ЧС</v>
       </c>
     </row>
@@ -4817,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="str">
-        <f>CONCATENATE(A250,B250)</f>
+        <f t="shared" si="3"/>
         <v>48.  Можно ли узнать о ДТП по М2 возле развязки через 50 км?  @ Авария</v>
       </c>
     </row>
@@ -4829,7 +5636,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="str">
-        <f>CONCATENATE(A251,B251)</f>
+        <f t="shared" si="3"/>
         <v>48.  Пожалуйста, предоставьте информацию о заправках на М10 перед поворотом налево через 40 км.  @ АЗС</v>
       </c>
     </row>
@@ -4841,7 +5648,7 @@
         <v>468</v>
       </c>
       <c r="C252" t="str">
-        <f>CONCATENATE(A252,B252)</f>
+        <f t="shared" si="3"/>
         <v>49.  Где расположены достопримечательности на трассе Е40 через 90 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4853,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="str">
-        <f>CONCATENATE(A253,B253)</f>
+        <f t="shared" si="3"/>
         <v>49.  Имеется ли информация о заправках на М5 в сторону Новосибирска через 100 км?  @ АЗС</v>
       </c>
     </row>
@@ -4865,7 +5672,7 @@
         <v>277</v>
       </c>
       <c r="C254" t="str">
-        <f>CONCATENATE(A254,B254)</f>
+        <f t="shared" si="3"/>
         <v>49.  Какие кемпинги находятся на трассе Е40 через 80 км?  @ Отдых</v>
       </c>
     </row>
@@ -4877,7 +5684,7 @@
         <v>2</v>
       </c>
       <c r="C255" t="str">
-        <f>CONCATENATE(A255,B255)</f>
+        <f t="shared" si="3"/>
         <v>49.  Что вызвало чрезвычайную ситуацию на трассе Е40 через 70 км, приведшую к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -4889,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="C256" t="str">
-        <f>CONCATENATE(A256,B256)</f>
+        <f t="shared" si="3"/>
         <v>49.  Что произошло на трассе Е40, что привело к блокировке движения через 70 км?  @ Авария</v>
       </c>
     </row>
@@ -4901,7 +5708,7 @@
         <v>3</v>
       </c>
       <c r="C257" t="str">
-        <f>CONCATENATE(A257,B257)</f>
+        <f t="shared" ref="C257:C320" si="4">CONCATENATE(A257,B257)</f>
         <v>5.  Где можно найти кафе на М9 в сторону Оренбурга?  @ Еда</v>
       </c>
     </row>
@@ -4913,7 +5720,7 @@
         <v>277</v>
       </c>
       <c r="C258" t="str">
-        <f>CONCATENATE(A258,B258)</f>
+        <f t="shared" si="4"/>
         <v>5.  Где можно найти отель на М9 в сторону Оренбурга?  @ Отдых</v>
       </c>
     </row>
@@ -4925,7 +5732,7 @@
         <v>468</v>
       </c>
       <c r="C259" t="str">
-        <f>CONCATENATE(A259,B259)</f>
+        <f t="shared" si="4"/>
         <v>5.  Где находятся интересные места на М9 в сторону Оренбурга?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -4937,7 +5744,7 @@
         <v>2</v>
       </c>
       <c r="C260" t="str">
-        <f>CONCATENATE(A260,B260)</f>
+        <f t="shared" si="4"/>
         <v>5.  Есть ли данные о чрезвычайной ситуации на М9 в направлении на Оренбург?  @ ЧС</v>
       </c>
     </row>
@@ -4949,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="str">
-        <f>CONCATENATE(A261,B261)</f>
+        <f t="shared" si="4"/>
         <v>5.  Есть ли заправки на трассе Е40 через 20 км после начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -4961,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="C262" t="str">
-        <f>CONCATENATE(A262,B262)</f>
+        <f t="shared" si="4"/>
         <v>5.     Есть ли информация о ДТП по М9 в направлении на Оренбург?  @ Авария</v>
       </c>
     </row>
@@ -4973,7 +5780,7 @@
         <v>277</v>
       </c>
       <c r="C263" t="str">
-        <f>CONCATENATE(A263,B263)</f>
+        <f t="shared" si="4"/>
         <v>50.  Есть ли возможность остановиться на отдых на М10 в сторону Москвы через 60 км?  @ Отдых</v>
       </c>
     </row>
@@ -4985,7 +5792,7 @@
         <v>2</v>
       </c>
       <c r="C264" t="str">
-        <f>CONCATENATE(A264,B264)</f>
+        <f t="shared" si="4"/>
         <v>50.  Есть ли информация о ЧП на М10 в сторону Москвы через 60 км?  @ ЧС</v>
       </c>
     </row>
@@ -4997,7 +5804,7 @@
         <v>468</v>
       </c>
       <c r="C265" t="str">
-        <f>CONCATENATE(A265,B265)</f>
+        <f t="shared" si="4"/>
         <v>50.  Какие места стоит посетить на М10 в сторону Москвы через 70 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5009,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="str">
-        <f>CONCATENATE(A266,B266)</f>
+        <f t="shared" si="4"/>
         <v>50.  Можно ли узнать о наличии заправки на Е50 в направлении на Владивосток через 60 км?  @ АЗС</v>
       </c>
     </row>
@@ -5021,7 +5828,7 @@
         <v>1</v>
       </c>
       <c r="C267" t="str">
-        <f>CONCATENATE(A267,B267)</f>
+        <f t="shared" si="4"/>
         <v>50.  Можно узнать о столкновении на М10 в сторону Москвы через 60 км?  @ Авария</v>
       </c>
     </row>
@@ -5033,7 +5840,7 @@
         <v>277</v>
       </c>
       <c r="C268" t="str">
-        <f>CONCATENATE(A268,B268)</f>
+        <f t="shared" si="4"/>
         <v>51.  Где можно остановиться на отдых на трассе М5 через 130 км?  @ Отдых</v>
       </c>
     </row>
@@ -5045,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="str">
-        <f>CONCATENATE(A269,B269)</f>
+        <f t="shared" si="4"/>
         <v>51.  Где на М7 можно заправиться через 50 км после поворота на право?  @ АЗС</v>
       </c>
     </row>
@@ -5057,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="C270" t="str">
-        <f>CONCATENATE(A270,B270)</f>
+        <f t="shared" si="4"/>
         <v>51.  Есть ли информация о произошедшей аварии на трассе Е22 через 100 км?  @ Авария</v>
       </c>
     </row>
@@ -5069,7 +5876,7 @@
         <v>468</v>
       </c>
       <c r="C271" t="str">
-        <f>CONCATENATE(A271,B271)</f>
+        <f t="shared" si="4"/>
         <v>51.  Какие достопримечательности находятся на трассе М5 через 130 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5081,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="C272" t="str">
-        <f>CONCATENATE(A272,B272)</f>
+        <f t="shared" si="4"/>
         <v>51.  Какие чрезвычайные ситуации произошли на трассе Е22 через 100 км?  @ ЧС</v>
       </c>
     </row>
@@ -5093,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="str">
-        <f>CONCATENATE(A273,B273)</f>
+        <f t="shared" si="4"/>
         <v>52.  Есть ли заправочные станции на Е40 в сторону Варшавы через 80 км?  @ АЗС</v>
       </c>
     </row>
@@ -5105,7 +5912,7 @@
         <v>277</v>
       </c>
       <c r="C274" t="str">
-        <f>CONCATENATE(A274,B274)</f>
+        <f t="shared" si="4"/>
         <v>52.  Есть ли информация о гостиницах на М6 в сторону Киева через 150 км?  @ Отдых</v>
       </c>
     </row>
@@ -5117,7 +5924,7 @@
         <v>468</v>
       </c>
       <c r="C275" t="str">
-        <f>CONCATENATE(A275,B275)</f>
+        <f t="shared" si="4"/>
         <v>52.  Есть ли информация о интересных местах на М6 в сторону Киева через 150 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5129,7 +5936,7 @@
         <v>2</v>
       </c>
       <c r="C276" t="str">
-        <f>CONCATENATE(A276,B276)</f>
+        <f t="shared" si="4"/>
         <v>52.  Можно ли получить информацию о чрезвычайной ситуации на М6 в сторону Киева через 150 км?  @ ЧС</v>
       </c>
     </row>
@@ -5141,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="C277" t="str">
-        <f>CONCATENATE(A277,B277)</f>
+        <f t="shared" si="4"/>
         <v>52.  Можно ли узнать о ДТП по М6 в сторону Киева через 150 км?  @ Авария</v>
       </c>
     </row>
@@ -5153,7 +5960,7 @@
         <v>468</v>
       </c>
       <c r="C278" t="str">
-        <f>CONCATENATE(A278,B278)</f>
+        <f t="shared" si="4"/>
         <v>53.  Какие достопримечательности можно посетить на трассе Е95 через 130 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5165,7 +5972,7 @@
         <v>277</v>
       </c>
       <c r="C279" t="str">
-        <f>CONCATENATE(A279,B279)</f>
+        <f t="shared" si="4"/>
         <v>53.  Какие отели расположены на трассе Е95 через 130 км?  @ Отдых</v>
       </c>
     </row>
@@ -5177,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="str">
-        <f>CONCATENATE(A280,B280)</f>
+        <f t="shared" si="4"/>
         <v>53.  Пожалуйста, сообщите, где находится автозаправочная станция на М3 перед поворотом налево через 20 км.  @ АЗС</v>
       </c>
     </row>
@@ -5189,7 +5996,7 @@
         <v>1</v>
       </c>
       <c r="C281" t="str">
-        <f>CONCATENATE(A281,B281)</f>
+        <f t="shared" si="4"/>
         <v>53.  Что произошло на трассе Е95 в районе поворота налево через 100 км?  @ Авария</v>
       </c>
     </row>
@@ -5201,7 +6008,7 @@
         <v>2</v>
       </c>
       <c r="C282" t="str">
-        <f>CONCATENATE(A282,B282)</f>
+        <f t="shared" si="4"/>
         <v>53.  Что произошло на трассе Е95 в районе поворота направо через 100 км?  @ ЧС</v>
       </c>
     </row>
@@ -5213,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="C283" t="str">
-        <f>CONCATENATE(A283,B283)</f>
+        <f t="shared" si="4"/>
         <v>54.  Имеется ли информация о блокировке движения из-за столкновения на М4 через 110 км?  @ Авария</v>
       </c>
     </row>
@@ -5225,7 +6032,7 @@
         <v>2</v>
       </c>
       <c r="C284" t="str">
-        <f>CONCATENATE(A284,B284)</f>
+        <f t="shared" si="4"/>
         <v>54.  Имеется ли информация о ЧП на М4 через 110 км, приведшем к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -5237,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="str">
-        <f>CONCATENATE(A285,B285)</f>
+        <f t="shared" si="4"/>
         <v>54.  Имеются ли заправки на М1 в сторону Минска через 60 км?  @ АЗС</v>
       </c>
     </row>
@@ -5249,7 +6056,7 @@
         <v>277</v>
       </c>
       <c r="C286" t="str">
-        <f>CONCATENATE(A286,B286)</f>
+        <f t="shared" si="4"/>
         <v>54.  Можно ли найти место для отдыха на М4 через 110 км?  @ Отдых</v>
       </c>
     </row>
@@ -5261,7 +6068,7 @@
         <v>468</v>
       </c>
       <c r="C287" t="str">
-        <f>CONCATENATE(A287,B287)</f>
+        <f t="shared" si="4"/>
         <v>54.  Можно ли узнать о интересных местах на М4 через 110 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5273,7 +6080,7 @@
         <v>277</v>
       </c>
       <c r="C288" t="str">
-        <f>CONCATENATE(A288,B288)</f>
+        <f t="shared" si="4"/>
         <v>55.  Где можно найти отель на М9 в сторону Оренбурга через 120 км?  @ Отдых</v>
       </c>
     </row>
@@ -5285,7 +6092,7 @@
         <v>468</v>
       </c>
       <c r="C289" t="str">
-        <f>CONCATENATE(A289,B289)</f>
+        <f t="shared" si="4"/>
         <v>55.  Где находятся интересные места на М9 в сторону Оренбурга через 120 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5297,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="C290" t="str">
-        <f>CONCATENATE(A290,B290)</f>
+        <f t="shared" si="4"/>
         <v>55.  Есть ли данные о чрезвычайной ситуации на М9 в сторону Оренбурга через 120 км?  @ ЧС</v>
       </c>
     </row>
@@ -5309,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="C291" t="str">
-        <f>CONCATENATE(A291,B291)</f>
+        <f t="shared" si="4"/>
         <v>55.  Есть ли информация о ДТП по М9 в сторону Оренбурга через 120 км?  @ Авария</v>
       </c>
     </row>
@@ -5321,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C292" t="str">
-        <f>CONCATENATE(A292,B292)</f>
+        <f t="shared" si="4"/>
         <v>55.  Можно ли узнать о наличии заправки на М2 через 20 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -5333,7 +6140,7 @@
         <v>0</v>
       </c>
       <c r="C293" t="str">
-        <f>CONCATENATE(A293,B293)</f>
+        <f t="shared" si="4"/>
         <v>56.  Где на М4 можно заправиться через 40 км после начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -5345,7 +6152,7 @@
         <v>468</v>
       </c>
       <c r="C294" t="str">
-        <f>CONCATENATE(A294,B294)</f>
+        <f t="shared" si="4"/>
         <v>56.  Какие достопримечательности доступны на М5 в сторону Новосибирска через 80 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5357,7 +6164,7 @@
         <v>277</v>
       </c>
       <c r="C295" t="str">
-        <f>CONCATENATE(A295,B295)</f>
+        <f t="shared" si="4"/>
         <v>56.  Какие места для отдыха доступны на М5 в сторону Новосибирска через 70 км?  @ Отдых</v>
       </c>
     </row>
@@ -5369,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="C296" t="str">
-        <f>CONCATENATE(A296,B296)</f>
+        <f t="shared" si="4"/>
         <v>56.  Что произошло на М5 в сторону Новосибирска через 60 км?  @ Авария</v>
       </c>
     </row>
@@ -5381,7 +6188,7 @@
         <v>2</v>
       </c>
       <c r="C297" t="str">
-        <f>CONCATENATE(A297,B297)</f>
+        <f t="shared" si="4"/>
         <v>56.  Что произошло на М5 в сторону Новосибирска через 60 км?  @ ЧС</v>
       </c>
     </row>
@@ -5393,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="str">
-        <f>CONCATENATE(A298,B298)</f>
+        <f t="shared" si="4"/>
         <v>57.  Есть ли заправочные станции на М6 в сторону Киева через 70 км?  @ АЗС</v>
       </c>
     </row>
@@ -5405,7 +6212,7 @@
         <v>468</v>
       </c>
       <c r="C299" t="str">
-        <f>CONCATENATE(A299,B299)</f>
+        <f t="shared" si="4"/>
         <v>57.  Есть ли информация о знаковых местах на трассе Е30 через 140 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5417,7 +6224,7 @@
         <v>277</v>
       </c>
       <c r="C300" t="str">
-        <f>CONCATENATE(A300,B300)</f>
+        <f t="shared" si="4"/>
         <v>57.  Есть ли информация о пансионатах на трассе Е30 через 140 км?  @ Отдых</v>
       </c>
     </row>
@@ -5429,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="C301" t="str">
-        <f>CONCATENATE(A301,B301)</f>
+        <f t="shared" si="4"/>
         <v>57.  Есть ли информация о случившейся аварии на Е30 через 100 км?  @ Авария</v>
       </c>
     </row>
@@ -5441,7 +6248,7 @@
         <v>2</v>
       </c>
       <c r="C302" t="str">
-        <f>CONCATENATE(A302,B302)</f>
+        <f t="shared" si="4"/>
         <v>57.  Можно ли узнать о чрезвычайной ситуации на Е30 через 100 км?  @ ЧС</v>
       </c>
     </row>
@@ -5453,7 +6260,7 @@
         <v>277</v>
       </c>
       <c r="C303" t="str">
-        <f>CONCATENATE(A303,B303)</f>
+        <f t="shared" si="4"/>
         <v>58.  Где можно сделать остановку для отдыха на М2 возле развязки через 60 км?  @ Отдых</v>
       </c>
     </row>
@@ -5465,7 +6272,7 @@
         <v>468</v>
       </c>
       <c r="C304" t="str">
-        <f>CONCATENATE(A304,B304)</f>
+        <f t="shared" si="4"/>
         <v>58.  Какие интересные места можно увидеть на М2 возле развязки через 60 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5477,7 +6284,7 @@
         <v>2</v>
       </c>
       <c r="C305" t="str">
-        <f>CONCATENATE(A305,B305)</f>
+        <f t="shared" si="4"/>
         <v>58.  Какие ЧС произошли на М2 возле развязки через 60 км?  @ ЧС</v>
       </c>
     </row>
@@ -5489,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="C306" t="str">
-        <f>CONCATENATE(A306,B306)</f>
+        <f t="shared" si="4"/>
         <v>58.  Можно ли узнать о ДТП по М2 возле развязки через 60 км?  @ Авария</v>
       </c>
     </row>
@@ -5501,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="str">
-        <f>CONCATENATE(A307,B307)</f>
+        <f t="shared" si="4"/>
         <v>58.  Пожалуйста, предоставьте информацию о заправках на Е20 перед выездом на город через 30 км.  @ АЗС</v>
       </c>
     </row>
@@ -5513,7 +6320,7 @@
         <v>468</v>
       </c>
       <c r="C308" t="str">
-        <f>CONCATENATE(A308,B308)</f>
+        <f t="shared" si="4"/>
         <v>59.  Где расположены достопримечательности на трассе Е40 через 110 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5525,7 +6332,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="str">
-        <f>CONCATENATE(A309,B309)</f>
+        <f t="shared" si="4"/>
         <v>59.  Имеются ли заправки на М8 через 10 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -5537,7 +6344,7 @@
         <v>277</v>
       </c>
       <c r="C310" t="str">
-        <f>CONCATENATE(A310,B310)</f>
+        <f t="shared" si="4"/>
         <v>59.  Какие кемпинги находятся на трассе Е40 через 90 км?  @ Отдых</v>
       </c>
     </row>
@@ -5549,7 +6356,7 @@
         <v>2</v>
       </c>
       <c r="C311" t="str">
-        <f>CONCATENATE(A311,B311)</f>
+        <f t="shared" si="4"/>
         <v>59.  Что вызвало чрезвычайную ситуацию на трассе Е40 через 80 км, приведшую к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -5561,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="C312" t="str">
-        <f>CONCATENATE(A312,B312)</f>
+        <f t="shared" si="4"/>
         <v>59.  Что произошло на трассе Е40, что привело к блокировке движения через 80 км?  @ Авария</v>
       </c>
     </row>
@@ -5573,7 +6380,7 @@
         <v>468</v>
       </c>
       <c r="C313" t="str">
-        <f>CONCATENATE(A313,B313)</f>
+        <f t="shared" si="4"/>
         <v>6.  Какие достопримечательности доступны на М5 в сторону Новосибирска?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5585,7 +6392,7 @@
         <v>277</v>
       </c>
       <c r="C314" t="str">
-        <f>CONCATENATE(A314,B314)</f>
+        <f t="shared" si="4"/>
         <v>6.  Какие места для отдыха доступны на М5 в сторону Новосибирска?  @ Отдых</v>
       </c>
     </row>
@@ -5597,7 +6404,7 @@
         <v>3</v>
       </c>
       <c r="C315" t="str">
-        <f>CONCATENATE(A315,B315)</f>
+        <f t="shared" si="4"/>
         <v>6.  Какие рестораны доступны на М5 в сторону Новосибирска?  @ Еда</v>
       </c>
     </row>
@@ -5609,7 +6416,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="str">
-        <f>CONCATENATE(A316,B316)</f>
+        <f t="shared" si="4"/>
         <v>6.  Можно ли узнать о наличии заправки на Е95 на 90 км в сторону Праги?  @ АЗС</v>
       </c>
     </row>
@@ -5621,7 +6428,7 @@
         <v>2</v>
       </c>
       <c r="C317" t="str">
-        <f>CONCATENATE(A317,B317)</f>
+        <f t="shared" si="4"/>
         <v>6.  Что произошло на М5, приведшее к аварии?  @ ЧС</v>
       </c>
     </row>
@@ -5633,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="C318" t="str">
-        <f>CONCATENATE(A318,B318)</f>
+        <f t="shared" si="4"/>
         <v>6.     Что произошло на М5 в сторону Новосибирска?  @ Авария</v>
       </c>
     </row>
@@ -5645,7 +6452,7 @@
         <v>277</v>
       </c>
       <c r="C319" t="str">
-        <f>CONCATENATE(A319,B319)</f>
+        <f t="shared" si="4"/>
         <v>60.  Есть ли возможность остановиться на отдых на М10 в сторону Москвы через 70 км?  @ Отдых</v>
       </c>
     </row>
@@ -5657,7 +6464,7 @@
         <v>2</v>
       </c>
       <c r="C320" t="str">
-        <f>CONCATENATE(A320,B320)</f>
+        <f t="shared" si="4"/>
         <v>60.  Есть ли информация о ЧП на М10 в сторону Москвы через 70 км?  @ ЧС</v>
       </c>
     </row>
@@ -5669,7 +6476,7 @@
         <v>468</v>
       </c>
       <c r="C321" t="str">
-        <f>CONCATENATE(A321,B321)</f>
+        <f t="shared" ref="C321:C384" si="5">CONCATENATE(A321,B321)</f>
         <v>60.  Какие места стоит посетить на М10 в сторону Москвы через 80 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5681,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="C322" t="str">
-        <f>CONCATENATE(A322,B322)</f>
+        <f t="shared" si="5"/>
         <v>60.  Можно ли узнать о наличии заправки на М9 в сторону Оренбурга через 20 км?  @ АЗС</v>
       </c>
     </row>
@@ -5693,7 +6500,7 @@
         <v>1</v>
       </c>
       <c r="C323" t="str">
-        <f>CONCATENATE(A323,B323)</f>
+        <f t="shared" si="5"/>
         <v>60.  Можно узнать о столкновении на М10 в сторону Москвы через 70 км?  @ Авария</v>
       </c>
     </row>
@@ -5705,7 +6512,7 @@
         <v>277</v>
       </c>
       <c r="C324" t="str">
-        <f>CONCATENATE(A324,B324)</f>
+        <f t="shared" si="5"/>
         <v>61.  Где можно остановиться на отдых на трассе М5 через 150 км?  @ Отдых</v>
       </c>
     </row>
@@ -5717,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="C325" t="str">
-        <f>CONCATENATE(A325,B325)</f>
+        <f t="shared" si="5"/>
         <v>61.  Где на Е30 можно заправиться через 10 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -5729,7 +6536,7 @@
         <v>1</v>
       </c>
       <c r="C326" t="str">
-        <f>CONCATENATE(A326,B326)</f>
+        <f t="shared" si="5"/>
         <v>61.  Есть ли информация о произошедшей аварии на трассе Е22 через 110 км?  @ Авария</v>
       </c>
     </row>
@@ -5741,7 +6548,7 @@
         <v>468</v>
       </c>
       <c r="C327" t="str">
-        <f>CONCATENATE(A327,B327)</f>
+        <f t="shared" si="5"/>
         <v>61.  Какие достопримечательности находятся на трассе М5 через 150 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5753,7 +6560,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="str">
-        <f>CONCATENATE(A328,B328)</f>
+        <f t="shared" si="5"/>
         <v>62.  Есть ли заправочные станции на А3 в сторону Самары через 30 км?  @ АЗС</v>
       </c>
     </row>
@@ -5765,7 +6572,7 @@
         <v>277</v>
       </c>
       <c r="C329" t="str">
-        <f>CONCATENATE(A329,B329)</f>
+        <f t="shared" si="5"/>
         <v>62.  Есть ли информация о гостиницах на М6 в сторону Киева через 170 км?  @ Отдых</v>
       </c>
     </row>
@@ -5777,7 +6584,7 @@
         <v>468</v>
       </c>
       <c r="C330" t="str">
-        <f>CONCATENATE(A330,B330)</f>
+        <f t="shared" si="5"/>
         <v>62.  Есть ли информация о интересных местах на М6 в сторону Киева через 170 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5789,7 +6596,7 @@
         <v>1</v>
       </c>
       <c r="C331" t="str">
-        <f>CONCATENATE(A331,B331)</f>
+        <f t="shared" si="5"/>
         <v>62.  Можно ли узнать о ДТП по М6 в сторону Киева через 170 км?  @ Авария</v>
       </c>
     </row>
@@ -5801,7 +6608,7 @@
         <v>468</v>
       </c>
       <c r="C332" t="str">
-        <f>CONCATENATE(A332,B332)</f>
+        <f t="shared" si="5"/>
         <v>63.  Какие достопримечательности можно посетить на трассе Е95 через 150 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5813,7 +6620,7 @@
         <v>277</v>
       </c>
       <c r="C333" t="str">
-        <f>CONCATENATE(A333,B333)</f>
+        <f t="shared" si="5"/>
         <v>63.  Какие отели расположены на трассе Е95 через 150 км?  @ Отдых</v>
       </c>
     </row>
@@ -5825,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="C334" t="str">
-        <f>CONCATENATE(A334,B334)</f>
+        <f t="shared" si="5"/>
         <v>63.  Пожалуйста, сообщите, где находится автозаправочная станция на М10 перед поворотом налево через 20 км.  @ АЗС</v>
       </c>
     </row>
@@ -5837,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="C335" t="str">
-        <f>CONCATENATE(A335,B335)</f>
+        <f t="shared" si="5"/>
         <v>63.  Что произошло на трассе Е95 в районе поворота направо через 110 км?  @ Авария</v>
       </c>
     </row>
@@ -5849,7 +6656,7 @@
         <v>1</v>
       </c>
       <c r="C336" t="str">
-        <f>CONCATENATE(A336,B336)</f>
+        <f t="shared" si="5"/>
         <v>64.  Имеется ли информация о блокировке движения из-за столкновения на М4 через 130 км?  @ Авария</v>
       </c>
     </row>
@@ -5861,7 +6668,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="str">
-        <f>CONCATENATE(A337,B337)</f>
+        <f t="shared" si="5"/>
         <v>64.  Имеется ли информация о заправках на М5 в сторону Новосибирска через 50 км?  @ АЗС</v>
       </c>
     </row>
@@ -5873,7 +6680,7 @@
         <v>277</v>
       </c>
       <c r="C338" t="str">
-        <f>CONCATENATE(A338,B338)</f>
+        <f t="shared" si="5"/>
         <v>64.  Можно ли найти место для отдыха на М4 через 130 км?  @ Отдых</v>
       </c>
     </row>
@@ -5885,7 +6692,7 @@
         <v>468</v>
       </c>
       <c r="C339" t="str">
-        <f>CONCATENATE(A339,B339)</f>
+        <f t="shared" si="5"/>
         <v>64.  Можно ли узнать о интересных местах на М4 через 130 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5897,7 +6704,7 @@
         <v>277</v>
       </c>
       <c r="C340" t="str">
-        <f>CONCATENATE(A340,B340)</f>
+        <f t="shared" si="5"/>
         <v>65.  Где можно найти отель на М9 в сторону Оренбурга через 140 км?  @ Отдых</v>
       </c>
     </row>
@@ -5909,7 +6716,7 @@
         <v>468</v>
       </c>
       <c r="C341" t="str">
-        <f>CONCATENATE(A341,B341)</f>
+        <f t="shared" si="5"/>
         <v>65.  Где находятся интересные места на М9 в сторону Оренбурга через 140 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5921,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="C342" t="str">
-        <f>CONCATENATE(A342,B342)</f>
+        <f t="shared" si="5"/>
         <v>65.  Есть ли информация о ДТП по М9 в сторону Оренбурга через 140 км?  @ Авария</v>
       </c>
     </row>
@@ -5933,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="C343" t="str">
-        <f>CONCATENATE(A343,B343)</f>
+        <f t="shared" si="5"/>
         <v>65.  Можно ли узнать о наличии заправки на Е50 в направлении на Владивосток через 30 км?  @ АЗС</v>
       </c>
     </row>
@@ -5945,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="str">
-        <f>CONCATENATE(A344,B344)</f>
+        <f t="shared" si="5"/>
         <v>66.  Где на М7 можно заправиться через 20 км после поворота на право?  @ АЗС</v>
       </c>
     </row>
@@ -5957,7 +6764,7 @@
         <v>468</v>
       </c>
       <c r="C345" t="str">
-        <f>CONCATENATE(A345,B345)</f>
+        <f t="shared" si="5"/>
         <v>66.  Какие достопримечательности доступны на М5 в сторону Новосибирска через 100 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -5969,7 +6776,7 @@
         <v>277</v>
       </c>
       <c r="C346" t="str">
-        <f>CONCATENATE(A346,B346)</f>
+        <f t="shared" si="5"/>
         <v>66.  Какие места для отдыха доступны на М5 в сторону Новосибирска через 80 км?  @ Отдых</v>
       </c>
     </row>
@@ -5981,7 +6788,7 @@
         <v>1</v>
       </c>
       <c r="C347" t="str">
-        <f>CONCATENATE(A347,B347)</f>
+        <f t="shared" si="5"/>
         <v>66.  Что произошло на М5 в сторону Новосибирска через 70 км?  @ Авария</v>
       </c>
     </row>
@@ -5993,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="C348" t="str">
-        <f>CONCATENATE(A348,B348)</f>
+        <f t="shared" si="5"/>
         <v>67.  Есть ли заправочные станции на Е40 в сторону Варшавы через 40 км?  @ АЗС</v>
       </c>
     </row>
@@ -6005,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="C349" t="str">
-        <f>CONCATENATE(A349,B349)</f>
+        <f t="shared" si="5"/>
         <v>67.  Есть ли информация о знаковых местах на трассе Е30 через 160 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6017,7 +6824,7 @@
         <v>277</v>
       </c>
       <c r="C350" t="str">
-        <f>CONCATENATE(A350,B350)</f>
+        <f t="shared" si="5"/>
         <v>67.  Есть ли информация о пансионатах на трассе Е30 через 160 км?  @ Отдых</v>
       </c>
     </row>
@@ -6029,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="C351" t="str">
-        <f>CONCATENATE(A351,B351)</f>
+        <f t="shared" si="5"/>
         <v>67.  Есть ли информация о случившейся аварии на Е30 через 110 км?  @ Авария</v>
       </c>
     </row>
@@ -6041,7 +6848,7 @@
         <v>277</v>
       </c>
       <c r="C352" t="str">
-        <f>CONCATENATE(A352,B352)</f>
+        <f t="shared" si="5"/>
         <v>68.  Где можно сделать остановку для отдыха на М2 возле развязки через 70 км?  @ Отдых</v>
       </c>
     </row>
@@ -6053,7 +6860,7 @@
         <v>468</v>
       </c>
       <c r="C353" t="str">
-        <f>CONCATENATE(A353,B353)</f>
+        <f t="shared" si="5"/>
         <v>68.  Какие интересные места можно увидеть на М2 возле развязки через 70 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6065,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="C354" t="str">
-        <f>CONCATENATE(A354,B354)</f>
+        <f t="shared" si="5"/>
         <v>68.  Можно ли узнать о ДТП по М2 возле развязки через 70 км?  @ Авария</v>
       </c>
     </row>
@@ -6077,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="str">
-        <f>CONCATENATE(A355,B355)</f>
+        <f t="shared" si="5"/>
         <v>68.  Пожалуйста, предоставьте информацию о заправках на М3 перед поворотом налево через 10 км.  @ АЗС</v>
       </c>
     </row>
@@ -6089,7 +6896,7 @@
         <v>468</v>
       </c>
       <c r="C356" t="str">
-        <f>CONCATENATE(A356,B356)</f>
+        <f t="shared" si="5"/>
         <v>69.  Где расположены достопримечательности на трассе Е40 через 130 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6101,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="C357" t="str">
-        <f>CONCATENATE(A357,B357)</f>
+        <f t="shared" si="5"/>
         <v>69.  Имеются ли заправки на М1 в сторону Минска через 30 км?  @ АЗС</v>
       </c>
     </row>
@@ -6113,7 +6920,7 @@
         <v>277</v>
       </c>
       <c r="C358" t="str">
-        <f>CONCATENATE(A358,B358)</f>
+        <f t="shared" si="5"/>
         <v>69.  Какие кемпинги находятся на трассе Е40 через 110 км?  @ Отдых</v>
       </c>
     </row>
@@ -6125,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="C359" t="str">
-        <f>CONCATENATE(A359,B359)</f>
+        <f t="shared" si="5"/>
         <v>69.  Что произошло на трассе Е40, что привело к блокировке движения через 90 км?  @ Авария</v>
       </c>
     </row>
@@ -6137,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="C360" t="str">
-        <f>CONCATENATE(A360,B360)</f>
+        <f t="shared" si="5"/>
         <v>7.  Где находится автозаправочная станция перед поворотом на М10?  @ АЗС</v>
       </c>
     </row>
@@ -6149,7 +6956,7 @@
         <v>468</v>
       </c>
       <c r="C361" t="str">
-        <f>CONCATENATE(A361,B361)</f>
+        <f t="shared" si="5"/>
         <v>7.  Есть ли информация о знаковых местах на трассе Е30?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6161,7 +6968,7 @@
         <v>277</v>
       </c>
       <c r="C362" t="str">
-        <f>CONCATENATE(A362,B362)</f>
+        <f t="shared" si="5"/>
         <v>7.  Есть ли информация о пансионатах на трассе Е30?  @ Отдых</v>
       </c>
     </row>
@@ -6173,7 +6980,7 @@
         <v>3</v>
       </c>
       <c r="C363" t="str">
-        <f>CONCATENATE(A363,B363)</f>
+        <f t="shared" si="5"/>
         <v>7.  Можно ли узнать о закусочных на трассе Е30?  @ Еда</v>
       </c>
     </row>
@@ -6185,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="C364" t="str">
-        <f>CONCATENATE(A364,B364)</f>
+        <f t="shared" si="5"/>
         <v>7.  Можно ли узнать о чрезвычайной ситуации на Е30?  @ ЧС</v>
       </c>
     </row>
@@ -6197,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="C365" t="str">
-        <f>CONCATENATE(A365,B365)</f>
+        <f t="shared" si="5"/>
         <v>7.     Есть ли информация о случившейся аварии на Е30?  @ Авария</v>
       </c>
     </row>
@@ -6209,7 +7016,7 @@
         <v>277</v>
       </c>
       <c r="C366" t="str">
-        <f>CONCATENATE(A366,B366)</f>
+        <f t="shared" si="5"/>
         <v>70.  Есть ли возможность остановиться на отдых на М10 в сторону Москвы через 80 км?  @ Отдых</v>
       </c>
     </row>
@@ -6221,7 +7028,7 @@
         <v>468</v>
       </c>
       <c r="C367" t="str">
-        <f>CONCATENATE(A367,B367)</f>
+        <f t="shared" si="5"/>
         <v>70.  Какие места стоит посетить на М10 в сторону Москвы через 90 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6233,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="C368" t="str">
-        <f>CONCATENATE(A368,B368)</f>
+        <f t="shared" si="5"/>
         <v>70.  Можно ли узнать о наличии заправки на М2 через 10 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -6245,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="C369" t="str">
-        <f>CONCATENATE(A369,B369)</f>
+        <f t="shared" si="5"/>
         <v>70.  Можно узнать о столкновении на М10 в сторону Москвы через 80 км?  @ Авария</v>
       </c>
     </row>
@@ -6257,7 +7064,7 @@
         <v>277</v>
       </c>
       <c r="C370" t="str">
-        <f>CONCATENATE(A370,B370)</f>
+        <f t="shared" si="5"/>
         <v>71.  Где можно остановиться на отдых на трассе М5 через 170 км?  @ Отдых</v>
       </c>
     </row>
@@ -6269,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="C371" t="str">
-        <f>CONCATENATE(A371,B371)</f>
+        <f t="shared" si="5"/>
         <v>71.  Где на М4 можно заправиться через 20 км после начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -6281,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="C372" t="str">
-        <f>CONCATENATE(A372,B372)</f>
+        <f t="shared" si="5"/>
         <v>71.  Есть ли информация о произошедшей аварии на трассе Е22 через 120 км?  @ Авария</v>
       </c>
     </row>
@@ -6293,7 +7100,7 @@
         <v>468</v>
       </c>
       <c r="C373" t="str">
-        <f>CONCATENATE(A373,B373)</f>
+        <f t="shared" si="5"/>
         <v>71.  Какие достопримечательности находятся на трассе М5 через 170 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6305,7 +7112,7 @@
         <v>0</v>
       </c>
       <c r="C374" t="str">
-        <f>CONCATENATE(A374,B374)</f>
+        <f t="shared" si="5"/>
         <v>72.  Есть ли заправочные станции на М6 в сторону Киева через 30 км?  @ АЗС</v>
       </c>
     </row>
@@ -6317,7 +7124,7 @@
         <v>277</v>
       </c>
       <c r="C375" t="str">
-        <f>CONCATENATE(A375,B375)</f>
+        <f t="shared" si="5"/>
         <v>72.  Есть ли информация о гостиницах на М6 в сторону Киева через 190 км?  @ Отдых</v>
       </c>
     </row>
@@ -6329,7 +7136,7 @@
         <v>468</v>
       </c>
       <c r="C376" t="str">
-        <f>CONCATENATE(A376,B376)</f>
+        <f t="shared" si="5"/>
         <v>72.  Есть ли информация о интересных местах на М6 в сторону Киева через 190 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6341,7 +7148,7 @@
         <v>1</v>
       </c>
       <c r="C377" t="str">
-        <f>CONCATENATE(A377,B377)</f>
+        <f t="shared" si="5"/>
         <v>72.  Можно ли узнать о ДТП по М6 в сторону Киева через 190 км?  @ Авария</v>
       </c>
     </row>
@@ -6353,7 +7160,7 @@
         <v>468</v>
       </c>
       <c r="C378" t="str">
-        <f>CONCATENATE(A378,B378)</f>
+        <f t="shared" si="5"/>
         <v>73.  Какие достопримечательности можно посетить на трассе Е95 через 170 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6365,7 +7172,7 @@
         <v>277</v>
       </c>
       <c r="C379" t="str">
-        <f>CONCATENATE(A379,B379)</f>
+        <f t="shared" si="5"/>
         <v>73.  Какие отели расположены на трассе Е95 через 170 км?  @ Отдых</v>
       </c>
     </row>
@@ -6377,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="C380" t="str">
-        <f>CONCATENATE(A380,B380)</f>
+        <f t="shared" si="5"/>
         <v>73.  Пожалуйста, предоставьте информацию о заправках на Е20 перед выездом на город через 10 км.  @ АЗС</v>
       </c>
     </row>
@@ -6389,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="C381" t="str">
-        <f>CONCATENATE(A381,B381)</f>
+        <f t="shared" si="5"/>
         <v>73.  Что произошло на трассе Е95 в районе поворота направо через 120 км?  @ Авария</v>
       </c>
     </row>
@@ -6401,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="C382" t="str">
-        <f>CONCATENATE(A382,B382)</f>
+        <f t="shared" si="5"/>
         <v>74.  Имеется ли информация о блокировке движения из-за столкновения на М4 через 150 км?  @ Авария</v>
       </c>
     </row>
@@ -6413,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="str">
-        <f>CONCATENATE(A383,B383)</f>
+        <f t="shared" si="5"/>
         <v>74.  Имеются ли заправки на М8 через 5 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -6425,7 +7232,7 @@
         <v>277</v>
       </c>
       <c r="C384" t="str">
-        <f>CONCATENATE(A384,B384)</f>
+        <f t="shared" si="5"/>
         <v>74.  Можно ли найти место для отдыха на М4 через 150 км?  @ Отдых</v>
       </c>
     </row>
@@ -6437,7 +7244,7 @@
         <v>468</v>
       </c>
       <c r="C385" t="str">
-        <f>CONCATENATE(A385,B385)</f>
+        <f t="shared" ref="C385:C448" si="6">CONCATENATE(A385,B385)</f>
         <v>74.  Можно ли узнать о интересных местах на М4 через 150 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6449,7 +7256,7 @@
         <v>277</v>
       </c>
       <c r="C386" t="str">
-        <f>CONCATENATE(A386,B386)</f>
+        <f t="shared" si="6"/>
         <v>75.  Где можно найти отель на М9 в сторону Оренбурга через 160 км?  @ Отдых</v>
       </c>
     </row>
@@ -6461,7 +7268,7 @@
         <v>468</v>
       </c>
       <c r="C387" t="str">
-        <f>CONCATENATE(A387,B387)</f>
+        <f t="shared" si="6"/>
         <v>75.  Где находятся интересные места на М9 в сторону Оренбурга через 160 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6473,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="C388" t="str">
-        <f>CONCATENATE(A388,B388)</f>
+        <f t="shared" si="6"/>
         <v>75.  Есть ли информация о ДТП по М9 в сторону Оренбурга через 160 км?  @ Авария</v>
       </c>
     </row>
@@ -6485,7 +7292,7 @@
         <v>0</v>
       </c>
       <c r="C389" t="str">
-        <f>CONCATENATE(A389,B389)</f>
+        <f t="shared" si="6"/>
         <v>75.  Можно ли узнать о наличии заправки на М9 в сторону Оренбурга через 10 км?  @ АЗС</v>
       </c>
     </row>
@@ -6497,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="C390" t="str">
-        <f>CONCATENATE(A390,B390)</f>
+        <f t="shared" si="6"/>
         <v>76.  Где на Е30 можно заправиться через 5 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -6509,7 +7316,7 @@
         <v>468</v>
       </c>
       <c r="C391" t="str">
-        <f>CONCATENATE(A391,B391)</f>
+        <f t="shared" si="6"/>
         <v>76.  Какие достопримечательности доступны на М5 в сторону Новосибирска через 120 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6521,7 +7328,7 @@
         <v>277</v>
       </c>
       <c r="C392" t="str">
-        <f>CONCATENATE(A392,B392)</f>
+        <f t="shared" si="6"/>
         <v>76.  Какие места для отдыха доступны на М5 в сторону Новосибирска через 90 км?  @ Отдых</v>
       </c>
     </row>
@@ -6533,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="C393" t="str">
-        <f>CONCATENATE(A393,B393)</f>
+        <f t="shared" si="6"/>
         <v>76.  Что произошло на М5 в сторону Новосибирска через 80 км?  @ Авария</v>
       </c>
     </row>
@@ -6545,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="C394" t="str">
-        <f>CONCATENATE(A394,B394)</f>
+        <f t="shared" si="6"/>
         <v>77.  Есть ли заправочные станции на А3 в сторону Самары через 15 км?  @ АЗС</v>
       </c>
     </row>
@@ -6557,7 +7364,7 @@
         <v>468</v>
       </c>
       <c r="C395" t="str">
-        <f>CONCATENATE(A395,B395)</f>
+        <f t="shared" si="6"/>
         <v>77.  Есть ли информация о знаковых местах на трассе Е30 через 180 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6569,7 +7376,7 @@
         <v>277</v>
       </c>
       <c r="C396" t="str">
-        <f>CONCATENATE(A396,B396)</f>
+        <f t="shared" si="6"/>
         <v>77.  Есть ли информация о пансионатах на трассе Е30 через 180 км?  @ Отдых</v>
       </c>
     </row>
@@ -6581,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="C397" t="str">
-        <f>CONCATENATE(A397,B397)</f>
+        <f t="shared" si="6"/>
         <v>77.  Есть ли информация о случившейся аварии на Е30 через 120 км?  @ Авария</v>
       </c>
     </row>
@@ -6593,7 +7400,7 @@
         <v>277</v>
       </c>
       <c r="C398" t="str">
-        <f>CONCATENATE(A398,B398)</f>
+        <f t="shared" si="6"/>
         <v>78.  Где можно сделать остановку для отдыха на М2 возле развязки через 80 км?  @ Отдых</v>
       </c>
     </row>
@@ -6605,7 +7412,7 @@
         <v>468</v>
       </c>
       <c r="C399" t="str">
-        <f>CONCATENATE(A399,B399)</f>
+        <f t="shared" si="6"/>
         <v>78.  Какие интересные места можно увидеть на М2 возле развязки через 80 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6617,7 +7424,7 @@
         <v>1</v>
       </c>
       <c r="C400" t="str">
-        <f>CONCATENATE(A400,B400)</f>
+        <f t="shared" si="6"/>
         <v>78.  Можно ли узнать о ДТП по М2 возле развязки через 80 км?  @ Авария</v>
       </c>
     </row>
@@ -6629,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="C401" t="str">
-        <f>CONCATENATE(A401,B401)</f>
+        <f t="shared" si="6"/>
         <v>78.  Пожалуйста, сообщите, где находится автозаправочная станция на М10 перед поворотом налево через 10 км.  @ АЗС</v>
       </c>
     </row>
@@ -6641,7 +7448,7 @@
         <v>468</v>
       </c>
       <c r="C402" t="str">
-        <f>CONCATENATE(A402,B402)</f>
+        <f t="shared" si="6"/>
         <v>79.  Где расположены достопримечательности на трассе Е40 через 150 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6653,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="C403" t="str">
-        <f>CONCATENATE(A403,B403)</f>
+        <f t="shared" si="6"/>
         <v>79.  Имеется ли информация о заправках на М5 в сторону Новосибирска через 20 км?  @ АЗС</v>
       </c>
     </row>
@@ -6665,7 +7472,7 @@
         <v>277</v>
       </c>
       <c r="C404" t="str">
-        <f>CONCATENATE(A404,B404)</f>
+        <f t="shared" si="6"/>
         <v>79.  Какие кемпинги находятся на трассе Е40 через 130 км?  @ Отдых</v>
       </c>
     </row>
@@ -6677,7 +7484,7 @@
         <v>1</v>
       </c>
       <c r="C405" t="str">
-        <f>CONCATENATE(A405,B405)</f>
+        <f t="shared" si="6"/>
         <v>79.  Что произошло на трассе Е40, что привело к блокировке движения через 100 км?  @ Авария</v>
       </c>
     </row>
@@ -6689,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="C406" t="str">
-        <f>CONCATENATE(A406,B406)</f>
+        <f t="shared" si="6"/>
         <v>8.  Где можно перекусить на М2 возле развязки?  @ Еда</v>
       </c>
     </row>
@@ -6701,7 +7508,7 @@
         <v>277</v>
       </c>
       <c r="C407" t="str">
-        <f>CONCATENATE(A407,B407)</f>
+        <f t="shared" si="6"/>
         <v>8.  Где можно сделать остановку для отдыха на М2 возле развязки?  @ Отдых</v>
       </c>
     </row>
@@ -6713,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="C408" t="str">
-        <f>CONCATENATE(A408,B408)</f>
+        <f t="shared" si="6"/>
         <v>8.  Имеются ли заправки по М3 в сторону Санкт-Петербурга через 70 км?  @ АЗС</v>
       </c>
     </row>
@@ -6725,7 +7532,7 @@
         <v>468</v>
       </c>
       <c r="C409" t="str">
-        <f>CONCATENATE(A409,B409)</f>
+        <f t="shared" si="6"/>
         <v>8.  Какие интересные места можно увидеть на М2 возле развязки?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6737,7 +7544,7 @@
         <v>2</v>
       </c>
       <c r="C410" t="str">
-        <f>CONCATENATE(A410,B410)</f>
+        <f t="shared" si="6"/>
         <v>8.  Какие ЧС произошли на М2 возле развязки?  @ ЧС</v>
       </c>
     </row>
@@ -6749,7 +7556,7 @@
         <v>1</v>
       </c>
       <c r="C411" t="str">
-        <f>CONCATENATE(A411,B411)</f>
+        <f t="shared" si="6"/>
         <v>8.     Можно ли узнать о ДТП по М2 возле развязки?  @ Авария</v>
       </c>
     </row>
@@ -6761,7 +7568,7 @@
         <v>277</v>
       </c>
       <c r="C412" t="str">
-        <f>CONCATENATE(A412,B412)</f>
+        <f t="shared" si="6"/>
         <v>80.  Есть ли возможность остановиться на отдых на М10 в сторону Москвы через 90 км?  @ Отдых</v>
       </c>
     </row>
@@ -6773,7 +7580,7 @@
         <v>468</v>
       </c>
       <c r="C413" t="str">
-        <f>CONCATENATE(A413,B413)</f>
+        <f t="shared" si="6"/>
         <v>80.  Какие места стоит посетить на М10 в сторону Москвы через 100 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6785,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="str">
-        <f>CONCATENATE(A414,B414)</f>
+        <f t="shared" si="6"/>
         <v>80.  Можно ли узнать о наличии заправки на Е50 в направлении на Владивосток через 15 км?  @ АЗС</v>
       </c>
     </row>
@@ -6797,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="C415" t="str">
-        <f>CONCATENATE(A415,B415)</f>
+        <f t="shared" si="6"/>
         <v>80.  Можно узнать о столкновении на М10 в сторону Москвы через 90 км?  @ Авария</v>
       </c>
     </row>
@@ -6809,7 +7616,7 @@
         <v>277</v>
       </c>
       <c r="C416" t="str">
-        <f>CONCATENATE(A416,B416)</f>
+        <f t="shared" si="6"/>
         <v>81.  Где можно остановиться на отдых на трассе М5 через 190 км?  @ Отдых</v>
       </c>
     </row>
@@ -6821,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="str">
-        <f>CONCATENATE(A417,B417)</f>
+        <f t="shared" si="6"/>
         <v>81.  Где на М7 можно заправиться через 10 км после поворота на право?  @ АЗС</v>
       </c>
     </row>
@@ -6833,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="C418" t="str">
-        <f>CONCATENATE(A418,B418)</f>
+        <f t="shared" si="6"/>
         <v>81.  Есть ли информация о произошедшей аварии на трассе Е22 через 130 км?  @ Авария</v>
       </c>
     </row>
@@ -6845,7 +7652,7 @@
         <v>468</v>
       </c>
       <c r="C419" t="str">
-        <f>CONCATENATE(A419,B419)</f>
+        <f t="shared" si="6"/>
         <v>81.  Какие достопримечательности находятся на трассе М5 через 190 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6857,7 +7664,7 @@
         <v>0</v>
       </c>
       <c r="C420" t="str">
-        <f>CONCATENATE(A420,B420)</f>
+        <f t="shared" si="6"/>
         <v>82.  Есть ли заправочные станции на Е40 в сторону Варшавы через 20 км?  @ АЗС</v>
       </c>
     </row>
@@ -6869,7 +7676,7 @@
         <v>277</v>
       </c>
       <c r="C421" t="str">
-        <f>CONCATENATE(A421,B421)</f>
+        <f t="shared" si="6"/>
         <v>82.  Есть ли информация о гостиницах на М6 в сторону Киева через 210 км?  @ Отдых</v>
       </c>
     </row>
@@ -6881,7 +7688,7 @@
         <v>468</v>
       </c>
       <c r="C422" t="str">
-        <f>CONCATENATE(A422,B422)</f>
+        <f t="shared" si="6"/>
         <v>82.  Есть ли информация о интересных местах на М6 в сторону Киева через 210 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6893,7 +7700,7 @@
         <v>1</v>
       </c>
       <c r="C423" t="str">
-        <f>CONCATENATE(A423,B423)</f>
+        <f t="shared" si="6"/>
         <v>82.  Можно ли узнать о ДТП по М6 в сторону Киева через 210 км?  @ Авария</v>
       </c>
     </row>
@@ -6905,7 +7712,7 @@
         <v>468</v>
       </c>
       <c r="C424" t="str">
-        <f>CONCATENATE(A424,B424)</f>
+        <f t="shared" si="6"/>
         <v>83.  Какие достопримечательности можно посетить на трассе Е95 через 190 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -6917,7 +7724,7 @@
         <v>277</v>
       </c>
       <c r="C425" t="str">
-        <f>CONCATENATE(A425,B425)</f>
+        <f t="shared" si="6"/>
         <v>83.  Какие отели расположены на трассе Е95 через 190 км?  @ Отдых</v>
       </c>
     </row>
@@ -6929,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="C426" t="str">
-        <f>CONCATENATE(A426,B426)</f>
+        <f t="shared" si="6"/>
         <v>83.  Пожалуйста, предоставьте информацию о заправках на М3 перед поворотом налево через 5 км.  @ АЗС</v>
       </c>
     </row>
@@ -6941,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="C427" t="str">
-        <f>CONCATENATE(A427,B427)</f>
+        <f t="shared" si="6"/>
         <v>83.  Что произошло на трассе Е95 в районе поворота направо через 130 км?  @ Авария</v>
       </c>
     </row>
@@ -6953,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="C428" t="str">
-        <f>CONCATENATE(A428,B428)</f>
+        <f t="shared" si="6"/>
         <v>84.  Имеется ли информация о блокировке движения из-за столкновения на М4 через 170 км?  @ Авария</v>
       </c>
     </row>
@@ -6965,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="str">
-        <f>CONCATENATE(A429,B429)</f>
+        <f t="shared" si="6"/>
         <v>84.  Имеются ли заправки на М1 в сторону Минска через 10 км?  @ АЗС</v>
       </c>
     </row>
@@ -6977,7 +7784,7 @@
         <v>277</v>
       </c>
       <c r="C430" t="str">
-        <f>CONCATENATE(A430,B430)</f>
+        <f t="shared" si="6"/>
         <v>84.  Можно ли найти место для отдыха на М4 через 170 км?  @ Отдых</v>
       </c>
     </row>
@@ -6989,7 +7796,7 @@
         <v>468</v>
       </c>
       <c r="C431" t="str">
-        <f>CONCATENATE(A431,B431)</f>
+        <f t="shared" si="6"/>
         <v>84.  Можно ли узнать о интересных местах на М4 через 170 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7001,7 +7808,7 @@
         <v>277</v>
       </c>
       <c r="C432" t="str">
-        <f>CONCATENATE(A432,B432)</f>
+        <f t="shared" si="6"/>
         <v>85.  Где можно найти отель на М9 в сторону Оренбурга через 180 км?  @ Отдых</v>
       </c>
     </row>
@@ -7013,7 +7820,7 @@
         <v>468</v>
       </c>
       <c r="C433" t="str">
-        <f>CONCATENATE(A433,B433)</f>
+        <f t="shared" si="6"/>
         <v>85.  Где находятся интересные места на М9 в сторону Оренбурга через 180 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7025,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="C434" t="str">
-        <f>CONCATENATE(A434,B434)</f>
+        <f t="shared" si="6"/>
         <v>85.  Есть ли информация о ДТП по М9 в сторону Оренбурга через 180 км?  @ Авария</v>
       </c>
     </row>
@@ -7037,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="C435" t="str">
-        <f>CONCATENATE(A435,B435)</f>
+        <f t="shared" si="6"/>
         <v>85.  Можно ли узнать о наличии заправки на М2 через 5 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -7049,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="str">
-        <f>CONCATENATE(A436,B436)</f>
+        <f t="shared" si="6"/>
         <v>86.  Где на М4 можно заправиться через 10 км после начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -7061,7 +7868,7 @@
         <v>468</v>
       </c>
       <c r="C437" t="str">
-        <f>CONCATENATE(A437,B437)</f>
+        <f t="shared" si="6"/>
         <v>86.  Какие достопримечательности доступны на М5 в сторону Новосибирска через 140 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7073,7 +7880,7 @@
         <v>277</v>
       </c>
       <c r="C438" t="str">
-        <f>CONCATENATE(A438,B438)</f>
+        <f t="shared" si="6"/>
         <v>86.  Какие места для отдыха доступны на М5 в сторону Новосибирска через 100 км?  @ Отдых</v>
       </c>
     </row>
@@ -7085,7 +7892,7 @@
         <v>1</v>
       </c>
       <c r="C439" t="str">
-        <f>CONCATENATE(A439,B439)</f>
+        <f t="shared" si="6"/>
         <v>86.  Что произошло на М5 в сторону Новосибирска через 90 км?  @ Авария</v>
       </c>
     </row>
@@ -7097,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="C440" t="str">
-        <f>CONCATENATE(A440,B440)</f>
+        <f t="shared" si="6"/>
         <v>87.  Есть ли заправочные станции на М6 в сторону Киева через 15 км?  @ АЗС</v>
       </c>
     </row>
@@ -7109,7 +7916,7 @@
         <v>468</v>
       </c>
       <c r="C441" t="str">
-        <f>CONCATENATE(A441,B441)</f>
+        <f t="shared" si="6"/>
         <v>87.  Есть ли информация о знаковых местах на трассе Е30 через 200 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7121,7 +7928,7 @@
         <v>277</v>
       </c>
       <c r="C442" t="str">
-        <f>CONCATENATE(A442,B442)</f>
+        <f t="shared" si="6"/>
         <v>87.  Есть ли информация о пансионатах на трассе Е30 через 200 км?  @ Отдых</v>
       </c>
     </row>
@@ -7133,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="C443" t="str">
-        <f>CONCATENATE(A443,B443)</f>
+        <f t="shared" si="6"/>
         <v>87.  Есть ли информация о случившейся аварии на Е30 через 130 км?  @ Авария</v>
       </c>
     </row>
@@ -7145,7 +7952,7 @@
         <v>277</v>
       </c>
       <c r="C444" t="str">
-        <f>CONCATENATE(A444,B444)</f>
+        <f t="shared" si="6"/>
         <v>88.  Где можно сделать остановку для отдыха на М2 возле развязки через 90 км?  @ Отдых</v>
       </c>
     </row>
@@ -7157,7 +7964,7 @@
         <v>468</v>
       </c>
       <c r="C445" t="str">
-        <f>CONCATENATE(A445,B445)</f>
+        <f t="shared" si="6"/>
         <v>88.  Какие интересные места можно увидеть на М2 возле развязки через 90 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7169,7 +7976,7 @@
         <v>1</v>
       </c>
       <c r="C446" t="str">
-        <f>CONCATENATE(A446,B446)</f>
+        <f t="shared" si="6"/>
         <v>88.  Можно ли узнать о ДТП по М2 возле развязки через 90 км?  @ Авария</v>
       </c>
     </row>
@@ -7181,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="C447" t="str">
-        <f>CONCATENATE(A447,B447)</f>
+        <f t="shared" si="6"/>
         <v>88.  Пожалуйста, предоставьте информацию о заправках на Е20 перед выездом на город через 5 км.  @ АЗС</v>
       </c>
     </row>
@@ -7193,7 +8000,7 @@
         <v>468</v>
       </c>
       <c r="C448" t="str">
-        <f>CONCATENATE(A448,B448)</f>
+        <f t="shared" si="6"/>
         <v>89.  Где расположены достопримечательности на трассе Е40 через 170 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7205,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="C449" t="str">
-        <f>CONCATENATE(A449,B449)</f>
+        <f t="shared" ref="C449:C470" si="7">CONCATENATE(A449,B449)</f>
         <v>89.  Имеются ли заправки на М8 через 2 км от начала маршрута?  @ АЗС</v>
       </c>
     </row>
@@ -7217,7 +8024,7 @@
         <v>277</v>
       </c>
       <c r="C450" t="str">
-        <f>CONCATENATE(A450,B450)</f>
+        <f t="shared" si="7"/>
         <v>89.  Какие кемпинги находятся на трассе Е40 через 150 км?  @ Отдых</v>
       </c>
     </row>
@@ -7229,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="C451" t="str">
-        <f>CONCATENATE(A451,B451)</f>
+        <f t="shared" si="7"/>
         <v>89.  Что произошло на трассе Е40, что привело к блокировке движения через 110 км?  @ Авария</v>
       </c>
     </row>
@@ -7241,7 +8048,7 @@
         <v>468</v>
       </c>
       <c r="C452" t="str">
-        <f>CONCATENATE(A452,B452)</f>
+        <f t="shared" si="7"/>
         <v>9.  Где расположены достопримечательности на трассе Е40?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7253,7 +8060,7 @@
         <v>3</v>
       </c>
       <c r="C453" t="str">
-        <f>CONCATENATE(A453,B453)</f>
+        <f t="shared" si="7"/>
         <v>9.  Есть ли информация о кафе на трассе Е40?  @ Еда</v>
       </c>
     </row>
@@ -7265,7 +8072,7 @@
         <v>277</v>
       </c>
       <c r="C454" t="str">
-        <f>CONCATENATE(A454,B454)</f>
+        <f t="shared" si="7"/>
         <v>9.  Какие кемпинги находятся на трассе Е40?  @ Отдых</v>
       </c>
     </row>
@@ -7277,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="C455" t="str">
-        <f>CONCATENATE(A455,B455)</f>
+        <f t="shared" si="7"/>
         <v>9.  Пожалуйста, предоставьте информацию о заправках на М2 за поворотом налево через 40 км.  @ АЗС</v>
       </c>
     </row>
@@ -7289,7 +8096,7 @@
         <v>2</v>
       </c>
       <c r="C456" t="str">
-        <f>CONCATENATE(A456,B456)</f>
+        <f t="shared" si="7"/>
         <v>9.  Что вызвало чрезвычайную ситуацию на трассе Е40, приведшую к блокировке движения?  @ ЧС</v>
       </c>
     </row>
@@ -7301,7 +8108,7 @@
         <v>1</v>
       </c>
       <c r="C457" t="str">
-        <f>CONCATENATE(A457,B457)</f>
+        <f t="shared" si="7"/>
         <v>9.     Что произошло на трассе Е40, что привело к блокировке движения?  @ Авария</v>
       </c>
     </row>
@@ -7313,7 +8120,7 @@
         <v>277</v>
       </c>
       <c r="C458" t="str">
-        <f>CONCATENATE(A458,B458)</f>
+        <f t="shared" si="7"/>
         <v>90.  Есть ли возможность остановиться на отдых на М10 в сторону Москвы через 100 км?  @ Отдых</v>
       </c>
     </row>
@@ -7325,7 +8132,7 @@
         <v>468</v>
       </c>
       <c r="C459" t="str">
-        <f>CONCATENATE(A459,B459)</f>
+        <f t="shared" si="7"/>
         <v>90.  Какие места стоит посетить на М10 в сторону Москвы через 110 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7337,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="C460" t="str">
-        <f>CONCATENATE(A460,B460)</f>
+        <f t="shared" si="7"/>
         <v>90.  Можно ли узнать о наличии заправки на М9 в сторону Оренбурга через 5 км?  @ АЗС</v>
       </c>
     </row>
@@ -7349,7 +8156,7 @@
         <v>1</v>
       </c>
       <c r="C461" t="str">
-        <f>CONCATENATE(A461,B461)</f>
+        <f t="shared" si="7"/>
         <v>90.  Можно узнать о столкновении на М10 в сторону Москвы через 100 км?  @ Авария</v>
       </c>
     </row>
@@ -7361,7 +8168,7 @@
         <v>468</v>
       </c>
       <c r="C462" t="str">
-        <f>CONCATENATE(A462,B462)</f>
+        <f t="shared" si="7"/>
         <v>91.  Какие достопримечательности находятся на трассе М5 через 210 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7373,7 +8180,7 @@
         <v>468</v>
       </c>
       <c r="C463" t="str">
-        <f>CONCATENATE(A463,B463)</f>
+        <f t="shared" si="7"/>
         <v>92.  Есть ли информация о интересных местах на М6 в сторону Киева через 230 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7385,7 +8192,7 @@
         <v>468</v>
       </c>
       <c r="C464" t="str">
-        <f>CONCATENATE(A464,B464)</f>
+        <f t="shared" si="7"/>
         <v>93.  Какие достопримечательности можно посетить на трассе Е95 через 210 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7397,7 +8204,7 @@
         <v>468</v>
       </c>
       <c r="C465" t="str">
-        <f>CONCATENATE(A465,B465)</f>
+        <f t="shared" si="7"/>
         <v>94.  Можно ли узнать о интересных местах на М4 через 190 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7409,7 +8216,7 @@
         <v>468</v>
       </c>
       <c r="C466" t="str">
-        <f>CONCATENATE(A466,B466)</f>
+        <f t="shared" si="7"/>
         <v>95.  Где находятся интересные места на М9 в сторону Оренбурга через 200 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7421,7 +8228,7 @@
         <v>468</v>
       </c>
       <c r="C467" t="str">
-        <f>CONCATENATE(A467,B467)</f>
+        <f t="shared" si="7"/>
         <v>96.  Какие достопримечательности доступны на М5 в сторону Новосибирска через 160 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7433,7 +8240,7 @@
         <v>468</v>
       </c>
       <c r="C468" t="str">
-        <f>CONCATENATE(A468,B468)</f>
+        <f t="shared" si="7"/>
         <v>97.  Есть ли информация о знаковых местах на трассе Е30 через 220 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7445,7 +8252,7 @@
         <v>468</v>
       </c>
       <c r="C469" t="str">
-        <f>CONCATENATE(A469,B469)</f>
+        <f t="shared" si="7"/>
         <v>98.  Какие интересные места можно увидеть на М2 возле развязки через 110 км?  @ Достопримечательности и интересные места</v>
       </c>
     </row>
@@ -7457,8 +8264,4853 @@
         <v>468</v>
       </c>
       <c r="C470" t="str">
-        <f>CONCATENATE(A470,B470)</f>
+        <f t="shared" si="7"/>
         <v>99.  Где расположены достопримечательности на трассе Е40 через 190 км?  @ Достопримечательности и интересные места</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C472" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C473" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C474" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C475" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C476" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C477" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C478" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C479" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C480" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C481" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C482" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C483" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C484" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C485" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C486" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C487" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C488" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C489" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C490" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C491" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C492" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C493" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C494" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C495" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C496" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C497" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C498" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C499" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C500" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C501" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C502" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C503" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C504" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C505" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C506" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C507" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C508" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C509" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C510" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C511" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C512" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C513" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C514" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C515" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C516" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C517" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C518" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C519" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C520" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C521" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C522" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C523" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C524" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C525" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C526" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C527" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C528" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C529" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C530" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C531" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C532" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C533" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C534" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C535" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C536" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C537" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C538" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C539" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C540" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C541" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C542" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C543" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C544" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C545" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C546" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C547" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C548" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C549" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C550" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C551" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C552" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C553" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C554" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C555" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C556" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C557" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C558" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C559" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C560" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C561" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C562" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C563" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C564" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C565" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C566" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C567" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C568" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C569" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C570" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C571" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C572" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C573" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C574" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C575" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C576" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C577" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C578" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C579" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C580" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C581" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C582" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="583" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C583" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="584" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C584" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="585" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C585" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="586" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C586" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="587" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C587" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="588" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C588" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="589" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C589" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="590" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C590" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="591" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C591" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="592" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C592" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="593" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C593" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="594" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C594" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="595" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C595" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="596" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C596" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="597" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C597" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="598" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C598" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="599" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C599" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="600" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C600" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="601" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C601" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="602" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C602" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="603" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C603" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="604" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C604" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="605" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C605" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="606" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C606" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="607" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C607" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="608" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C608" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="609" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C609" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="610" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C610" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="611" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C611" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="612" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C612" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="613" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C613" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="614" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C614" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="615" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C615" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="616" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C616" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="617" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C617" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C618" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="619" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C619" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="620" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C620" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="621" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C621" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="622" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C622" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="623" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C623" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="624" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C624" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="625" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C625" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="626" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C626" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="627" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C627" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="628" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C628" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="629" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C629" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="630" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C630" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="631" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C631" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="632" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C632" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="633" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C633" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="634" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C634" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="635" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C635" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C636" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="637" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C637" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="638" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C638" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="639" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C639" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="640" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C640" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="641" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C641" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="642" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C642" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="643" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C643" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="644" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C644" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="645" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C645" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="646" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C646" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="647" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C647" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="648" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C648" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="649" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C649" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="650" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C650" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="651" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C651" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="652" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C652" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="653" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C653" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="654" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C654" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="655" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C655" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="656" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C656" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="657" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C657" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="658" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C658" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="659" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C659" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="660" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C660" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="661" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C661" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="662" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C662" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="663" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C663" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="664" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C664" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="665" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C665" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="666" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C666" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="667" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C667" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="668" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C668" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="669" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C669" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="670" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C670" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="671" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C671" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="672" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C672" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="673" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C673" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="674" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C674" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="675" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C675" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="676" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C676" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="677" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C677" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="678" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C678" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="679" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C679" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="680" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C680" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="681" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C681" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="682" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C682" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="683" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C683" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="684" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C684" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="685" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C685" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="686" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C686" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="687" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C687" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="688" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C688" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="689" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C689" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="690" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C690" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="691" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C691" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="692" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C692" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="693" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C693" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="694" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C694" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="695" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C695" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="696" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C696" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="697" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C697" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="698" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C698" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="699" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C699" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="700" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C700" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="701" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C701" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="702" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C702" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="703" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C703" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="704" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C704" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="705" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C705" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="706" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C706" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="707" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C707" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="708" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C708" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="709" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C709" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="710" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C710" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="711" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C711" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="712" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C712" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="713" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C713" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="714" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C714" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="715" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C715" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="716" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C716" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="717" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C717" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="718" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C718" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="719" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C719" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="720" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C720" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="721" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C721" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="722" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C722" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="723" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C723" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="724" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C724" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="725" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C725" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="726" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C726" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="727" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C727" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="728" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C728" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="729" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C729" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="730" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C730" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="731" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C731" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="732" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C732" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="733" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C733" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="734" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C734" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="735" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C735" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="736" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C736" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="737" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C737" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="738" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C738" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="739" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C739" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="740" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C740" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="741" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C741" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="742" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C742" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="743" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C743" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="744" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C744" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="745" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C745" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="746" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C746" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="747" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C747" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="748" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C748" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="749" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C749" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="750" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C750" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="751" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C751" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="752" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C752" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="753" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C753" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="754" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C754" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="755" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C755" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="756" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C756" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="757" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C757" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="758" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C758" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="759" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C759" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="760" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C760" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="761" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C761" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="762" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C762" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="763" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C763" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="764" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C764" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="765" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C765" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="766" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C766" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="767" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C767" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="768" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C768" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="769" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C769" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="770" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C770" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="771" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C771" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="772" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C772" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="773" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C773" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="774" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C774" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="775" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C775" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="776" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C776" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="777" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C777" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="778" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C778" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="779" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C779" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="780" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C780" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="781" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C781" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="782" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C782" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="783" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C783" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="784" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C784" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="785" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C785" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="786" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C786" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="787" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C787" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="788" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C788" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="789" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C789" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="790" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C790" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="791" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C791" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="792" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C792" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="793" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C793" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="794" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C794" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="795" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C795" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="796" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C796" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="797" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C797" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="798" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C798" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="799" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C799" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="800" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C800" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="801" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C801" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="802" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C802" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="803" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C803" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="804" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C804" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="805" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C805" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="806" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C806" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="807" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C807" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="808" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C808" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="809" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C809" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="810" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C810" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="811" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C811" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="812" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C812" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="813" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C813" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="814" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C814" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="815" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C815" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="816" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C816" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="817" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C817" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="818" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C818" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="819" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C819" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="820" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C820" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="821" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C821" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="822" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C822" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="823" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C823" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="824" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C824" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="825" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C825" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="826" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C826" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="827" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C827" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="828" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C828" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="829" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C829" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="830" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C830" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="831" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C831" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="832" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C832" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="833" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C833" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="834" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C834" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="835" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C835" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="836" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C836" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="837" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C837" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="838" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C838" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="839" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C839" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="840" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C840" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="841" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C841" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="842" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C842" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="843" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C843" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="844" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C844" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="845" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C845" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="846" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C846" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="847" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C847" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="848" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C848" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="849" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C849" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="850" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C850" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="851" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C851" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="852" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C852" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="853" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C853" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="854" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C854" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="855" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C855" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="856" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C856" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="857" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C857" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="858" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C858" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="859" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C859" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="860" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C860" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="861" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C861" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="862" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C862" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="863" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C863" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="864" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C864" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="865" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C865" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="866" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C866" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="867" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C867" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="868" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C868" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="869" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C869" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="870" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C870" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="871" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C871" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="872" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C872" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="873" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C873" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="874" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C874" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="875" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C875" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="876" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C876" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="877" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C877" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="878" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C878" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="879" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C879" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="880" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C880" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="881" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C881" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="882" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C882" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="883" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C883" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="884" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C884" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="885" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C885" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="886" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C886" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="887" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C887" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="888" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C888" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="889" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C889" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="890" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C890" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="891" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C891" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="892" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C892" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="893" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C893" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="894" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C894" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="895" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C895" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="896" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C896" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="897" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C897" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="898" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C898" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="899" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C899" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="900" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C900" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="901" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C901" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="902" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C902" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="903" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C903" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="904" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C904" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="905" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C905" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="906" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C906" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="907" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C907" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="908" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C908" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="909" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C909" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="910" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C910" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="911" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C911" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="912" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C912" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="913" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C913" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="914" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C914" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="915" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C915" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="916" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C916" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="917" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C917" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="918" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C918" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="919" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C919" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="920" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C920" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="921" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C921" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="922" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C922" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="923" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C923" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="924" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C924" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="925" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C925" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="926" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C926" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="927" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C927" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="928" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C928" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="929" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C929" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="930" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C930" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="931" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C931" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="932" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C932" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="933" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C933" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="934" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C934" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="935" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C935" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="936" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C936" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="937" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C937" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="938" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C938" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="939" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C939" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="940" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C940" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="941" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C941" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="942" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C942" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="943" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C943" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="944" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C944" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="945" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C945" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="946" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C946" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="947" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C947" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="948" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C948" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="949" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C949" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="950" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C950" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="951" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C951" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="952" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C952" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="953" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C953" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="954" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C954" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="955" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C955" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="956" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C956" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="957" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C957" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="958" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C958" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="959" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C959" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="960" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C960" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="961" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C961" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="962" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C962" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="963" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C963" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="964" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C964" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="965" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C965" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="966" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C966" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="967" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C967" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="968" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C968" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="969" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C969" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="970" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C970" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="971" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C971" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="972" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C972" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="973" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C973" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="974" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C974" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="975" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C975" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="976" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C976" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="977" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C977" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="978" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C978" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="979" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C979" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="980" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C980" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="981" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C981" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="982" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C982" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="983" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C983" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="984" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C984" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="985" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C985" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="986" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C986" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="987" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C987" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="988" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C988" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="989" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C989" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="990" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C990" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="991" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C991" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="992" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C992" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="993" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C993" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="994" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C994" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="995" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C995" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="996" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C996" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="997" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C997" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="998" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C998" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="999" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C999" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="1000" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1000" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1001" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1001" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1002" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1002" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1003" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1003" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1004" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1004" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="1005" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1005" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1006" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1006" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1007" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1007" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1008" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1008" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1009" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="1010" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1010" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1011" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1011" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="1012" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1012" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1013" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1013" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1014" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1014" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1015" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1015" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1016" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1016" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1017" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1017" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1018" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1018" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1019" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1019" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="1020" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1020" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="1021" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1021" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1022" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1022" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1023" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1023" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1024" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1024" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1025" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1025" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1026" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1026" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1027" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1027" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1028" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1028" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1029" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1029" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="1030" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1030" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1031" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1031" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1032" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1032" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1033" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1033" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1034" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1034" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1035" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1035" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1036" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1036" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1037" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1037" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1038" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1038" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="1039" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1039" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1040" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1040" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1041" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1041" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1042" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1042" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1043" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1043" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="1044" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1044" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1045" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1045" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1046" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1046" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="1047" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1047" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1048" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1048" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1049" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1049" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="1050" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1050" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1051" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1051" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="1052" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1052" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1053" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1053" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1054" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1054" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1055" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1055" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1056" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1056" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="1057" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1057" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1058" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1058" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1059" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1059" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="1060" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1060" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="1061" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1061" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1062" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1062" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1063" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1063" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1064" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1064" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1065" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1065" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1066" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1066" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1067" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1067" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1068" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1068" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1069" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1069" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1070" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1070" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1071" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1071" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1072" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1072" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1073" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1073" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1074" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1074" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1075" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1075" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1076" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1076" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="1077" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1077" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1078" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1078" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1079" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1079" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1080" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1080" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1081" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1081" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="1082" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1082" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1083" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1083" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1084" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1084" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1085" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1085" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1086" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1086" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1087" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1087" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1088" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1088" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="1089" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1089" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1090" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1090" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1091" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1091" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1092" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1092" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1093" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1093" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1094" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1094" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1095" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1095" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1096" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1096" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1097" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1097" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1098" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1098" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1099" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1099" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1100" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1101" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1102" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1103" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="1104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1104" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1105" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1106" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1107" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1108" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="1109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1109" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1110" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1111" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1112" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1113" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1114" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="1115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1115" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1116" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1117" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1118" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1119" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1120" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1121" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1122" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1123" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1124" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1125" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1126" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="1127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1127" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1128" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1129" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1130" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1131" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1132" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1133" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1134" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1135" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1136" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1137" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1138" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1139" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1140" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="1141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1141" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1142" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1143" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1144" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="1145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1145" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1146" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1147" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1148" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1149" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="1150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1150" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1151" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1152" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1153" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1154" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1155" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1156" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1157" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1158" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="1159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1159" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1160" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="1161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1161" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1162" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1163" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1164" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1165" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1166" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1167" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1168" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1169" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="1170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1170" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1171" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1172" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1173" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1174" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1175" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1176" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1177" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1178" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1179" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1180" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1181" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1182" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1183" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1184" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1185" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1186" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1187" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1188" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="1189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1189" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1190" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1191" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1192" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1193" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1194" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1195" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1196" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1197" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1198" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="1199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1199" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1200" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1201" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1202" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1203" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1204" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1205" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1206" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1207" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1208" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1209" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1210" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1211" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="1212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1212" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1213" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1214" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1215" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="1216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1216" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1217" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1218" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="1219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1219" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1220" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="1221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1221" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="1222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1222" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1223" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="1224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1224" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1225" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="1226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1226" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="1227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1227" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1228" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="1229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1229" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="1230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1230" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1231" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1232" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1233" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="1234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1234" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="1235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1235" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="1236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1236" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1237" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1238" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="1239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1239" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="1240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1240" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1241" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1242" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="1243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1243" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1244" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1245" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1246" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1247" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="1248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1248" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1249" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1250" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="1251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1251" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="1252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1252" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1253" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1254" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1255" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="1256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1256" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1257" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1258" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="1259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1259" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1260" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1261" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1262" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1263" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1264" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1265" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1266" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1267" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1268" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1269" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1270" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1271" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1272" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="1273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1273" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1274" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1275" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1276" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1277" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1278" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1279" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1280" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1281" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1282" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1283" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1284" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1285" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1286" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1287" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1288" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1289" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1290" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1291" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1292" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1293" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1294" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1295" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1296" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1297" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1298" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1299" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1300" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1301" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1303" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1305" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1307" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1309" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1311" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1313" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1315" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1317" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1319" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1321" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1323" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1325" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1327" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1329" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1331" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1333" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1335" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1337" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1339" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1341" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1343" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1345" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1347" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1349" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1351" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1353" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1355" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1357" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1359" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1361" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1363" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1365" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1367" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1369" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1371" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1373" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1375" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1377" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1379" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1381" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1383" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1385" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1387" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1389" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1391" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1391" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1393" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1393" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1395" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1395" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1397" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1397" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1399" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1399" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1401" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1401" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1403" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1403" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1405" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1405" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1407" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1407" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1409" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1409" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1411" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1411" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1413" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1413" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1415" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1415" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1417" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1417" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1419" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1419" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1421" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1421" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1423" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1423" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1425" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1425" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1427" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1427" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1429" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1429" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1431" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1431" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1433" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1433" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1435" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1435" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1437" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1437" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1439" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1439" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1441" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1441" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1443" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1443" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1445" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1445" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1447" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1447" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1449" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1449" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1451" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1451" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1453" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1453" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1455" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1455" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1457" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1457" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1459" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1459" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1461" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1461" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1463" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1463" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1465" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1465" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1467" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1467" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1469" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1469" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1471" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1471" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1473" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1473" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1475" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1475" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1477" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1477" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1479" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1479" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1481" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1481" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1483" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1483" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1485" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1485" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1487" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1487" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1489" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1489" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1491" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1491" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1493" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1493" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1495" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1495" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1497" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1497" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1499" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1499" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1500" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1500" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1501" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1501" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1502" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1502" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1503" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1503" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1504" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1504" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1505" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1505" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1506" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1506" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1507" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1507" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1508" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1508" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1509" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1509" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1510" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1510" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1511" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1511" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1512" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1512" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1513" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1513" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1514" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1514" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1515" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1515" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1516" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1516" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1517" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1517" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1518" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1518" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1519" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1519" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1520" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1520" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1521" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1521" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1522" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1522" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1523" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1523" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1524" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1524" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1525" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1525" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1526" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1526" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1527" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1527" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1528" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1528" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1529" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1529" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1530" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1530" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1531" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1531" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1532" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1532" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1533" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1533" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1534" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1534" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1535" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1535" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1536" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1536" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1537" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1537" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1538" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1538" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1539" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1539" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>

--- a/Book 1.xlsx
+++ b/Book 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lipen\PycharmProjects\My_classifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0FACBE-AB3E-4F43-BFA6-870C0633D917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF45AAAD-9AA3-4A23-9AD3-CD3F56E2AB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{03F764E3-85F1-49B5-8786-945FC52AAEF2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="738">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="762">
   <si>
     <t xml:space="preserve"> @ АЗС</t>
   </si>
@@ -2246,6 +2246,78 @@
   </si>
   <si>
     <t>Где можно остановиться на отдых на М1 перед городом с рестораном и кафе? @ Отдых</t>
+  </si>
+  <si>
+    <t>Где на трассе М1 можно найти ресторан с национальной кухней? @ Еда</t>
+  </si>
+  <si>
+    <t>Есть ли кафе на трассе М10, где подают быстрые закуски? @ Еда</t>
+  </si>
+  <si>
+    <t>Какие рестораны на М4 предлагают вегетарианское меню? @ Еда</t>
+  </si>
+  <si>
+    <t>Где на М5 можно найти кафе с домашней выпечкой? @ Еда</t>
+  </si>
+  <si>
+    <t>Можно ли найти на М2 место, где готовят свежие морепродукты? @ Еда</t>
+  </si>
+  <si>
+    <t>Подскажите рестораны на М6, где можно попробовать местные деликатесы? @ Еда</t>
+  </si>
+  <si>
+    <t>Есть ли на М8 кафе с детским меню и игровой зоной? @ Еда</t>
+  </si>
+  <si>
+    <t>Где на М11 можно найти ресторан с видом на озеро? @ Еда</t>
+  </si>
+  <si>
+    <t>Какие рестораны на М3 предлагают бизнес-ланчи? @ Еда</t>
+  </si>
+  <si>
+    <t>Где на М7 можно найти кафе с домашней кухней? @ Еда</t>
+  </si>
+  <si>
+    <t>Есть ли на М1 рестораны с авторской кухней? @ Еда</t>
+  </si>
+  <si>
+    <t>Где на М10 можно найти кафе с быстрым обслуживанием? @ Еда</t>
+  </si>
+  <si>
+    <t>Подскажите рестораны на М4, где можно попробовать местные специализации? @ Еда</t>
+  </si>
+  <si>
+    <t>Где на М5 можно найти кафе с домашними десертами? @ Еда</t>
+  </si>
+  <si>
+    <t>Можно ли найти на М2 место, где готовят свежие овощи и фрукты? @ Еда</t>
+  </si>
+  <si>
+    <t>Есть ли на М6 кафе с традиционными напитками? @ Еда</t>
+  </si>
+  <si>
+    <t>Где на М8 можно найти ресторан с дегустацией местных вин? @ Еда</t>
+  </si>
+  <si>
+    <t>Какие рестораны на М11 предлагают морепродукты? @ Еда</t>
+  </si>
+  <si>
+    <t>Где на М3 можно найти кафе с домашними обедами? @ Еда</t>
+  </si>
+  <si>
+    <t>Подскажите рестораны на М7, где можно попробовать блюда из региональной кухни? @ Еда</t>
+  </si>
+  <si>
+    <t>Есть ли на М1 рестораны с местными деликатесами? @ Еда</t>
+  </si>
+  <si>
+    <t>Где на М10 можно найти кафе с меню для диетического питания? @ Еда</t>
+  </si>
+  <si>
+    <t>Подскажите рестораны на М4, где можно попробовать экзотическую кухню? @ Еда</t>
+  </si>
+  <si>
+    <t>Где на М5 можно найти кафе с домашними пирогами? @ Еда</t>
   </si>
 </sst>
 </file>
@@ -2615,10 +2687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C13D30-FAD8-4B25-BC5F-166A891BC747}">
-  <dimension ref="A1:C1539"/>
+  <dimension ref="A1:C1628"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1487" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1500" sqref="C1500:C1539"/>
+    <sheetView tabSelected="1" topLeftCell="B1595" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1629" sqref="C1629"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13113,6 +13185,306 @@
         <v>708</v>
       </c>
     </row>
+    <row r="1540" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1540" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1541" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1541" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1542" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1542" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1543" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1543" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1544" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1544" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1545" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1545" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1546" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1546" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1547" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1547" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1548" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1548" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1549" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1549" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1550" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1550" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1551" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1551" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1552" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1552" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1553" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1553" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1554" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1554" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1555" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1555" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1556" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1556" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1557" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1557" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1558" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1558" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1559" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1559" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1560" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1560" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1561" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1561" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1562" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1562" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1563" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1563" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1564" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1564" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1565" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1565" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1566" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1566" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1567" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1567" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1568" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1568" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1569" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1569" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1570" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1570" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="1572" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1572" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="1574" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1574" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1576" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1576" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1578" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1578" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1580" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1580" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1582" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1582" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1584" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1584" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1586" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1586" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1588" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1588" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1590" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1590" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1592" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1592" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="1594" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1594" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1596" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1596" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1598" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1598" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1600" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1600" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1602" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1602" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="1604" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1604" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1606" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1606" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1608" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1608" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1610" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1610" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1612" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1612" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="1614" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1614" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="1616" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1616" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="1618" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1618" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1620" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1620" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1622" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1622" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="1624" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1624" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1626" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1626" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1628" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C1628" t="s">
+        <v>757</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C470">
     <sortCondition ref="A1:A470"/>
